--- a/database/industries/ghaza/ghevita/product/monthly.xlsx
+++ b/database/industries/ghaza/ghevita/product/monthly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\ghaza\ghevita\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghevita\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBE80FE-57C8-4B99-B1EB-DD5F30831B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="75">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -36,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 9 منتهی به 1397/06</t>
-  </si>
-  <si>
     <t>ماه 10 منتهی به 1397/08</t>
   </si>
   <si>
@@ -48,6 +46,9 @@
     <t>ماه 1 منتهی به 1397/10</t>
   </si>
   <si>
+    <t>ماه 12 منتهی به 1397/10</t>
+  </si>
+  <si>
     <t>ماه 2 منتهی به 1397/11</t>
   </si>
   <si>
@@ -183,6 +184,9 @@
     <t>ماه 10 منتهی به 1401/08</t>
   </si>
   <si>
+    <t>ماه 11 منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>انواع بیسکوییت</t>
   </si>
   <si>
@@ -190,6 +194,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>انواع بیسکوئیت</t>
   </si>
   <si>
     <t>کالای بازگانی</t>
@@ -243,7 +250,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -436,7 +443,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -448,7 +455,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -495,6 +502,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -530,6 +554,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -681,19 +722,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BA59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:BB59"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I1:I1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="53" width="20" customWidth="1"/>
+    <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -746,8 +785,9 @@
       <c r="AY1" s="1"/>
       <c r="AZ1" s="1"/>
       <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:53" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -802,8 +842,9 @@
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -858,8 +899,9 @@
       <c r="AY3" s="1"/>
       <c r="AZ3" s="1"/>
       <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -912,8 +954,9 @@
       <c r="AY4" s="1"/>
       <c r="AZ4" s="1"/>
       <c r="BA4" s="1"/>
+      <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:53" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -968,8 +1011,9 @@
       <c r="AY5" s="4"/>
       <c r="AZ5" s="4"/>
       <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:53" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1024,8 +1068,9 @@
       <c r="AY6" s="4"/>
       <c r="AZ6" s="4"/>
       <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1078,8 +1123,9 @@
       <c r="AY7" s="1"/>
       <c r="AZ7" s="1"/>
       <c r="BA7" s="1"/>
+      <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:53" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1232,8 +1278,11 @@
       <c r="BA8" s="6" t="s">
         <v>53</v>
       </c>
+      <c r="BB8" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="9" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1286,8 +1335,9 @@
       <c r="AY9" s="1"/>
       <c r="AZ9" s="1"/>
       <c r="BA9" s="1"/>
+      <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1342,26 +1392,27 @@
       <c r="AY10" s="9"/>
       <c r="AZ10" s="9"/>
       <c r="BA10" s="9"/>
+      <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11">
-        <v>1308</v>
+      <c r="E11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="11">
+        <v>57</v>
+      </c>
+      <c r="G11" s="11">
         <v>1769</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="I11" s="11">
         <v>1401</v>
@@ -1469,160 +1520,163 @@
         <v>2090</v>
       </c>
       <c r="AR11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB11" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>56</v>
-      </c>
-      <c r="AS11" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT11" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU11" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV11" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW11" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AX11" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY11" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AZ11" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="BA11" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="2:53" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AJ12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AM12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AN12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AO12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AP12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AQ12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AR12" s="13">
         <v>0</v>
@@ -1654,137 +1708,140 @@
       <c r="BA12" s="13">
         <v>1342</v>
       </c>
+      <c r="BB12" s="13">
+        <v>883</v>
+      </c>
     </row>
-    <row r="13" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AJ13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AM13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AN13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AO13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AP13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AQ13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AR13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AS13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AT13" s="11">
         <v>0</v>
@@ -1793,7 +1850,7 @@
         <v>383</v>
       </c>
       <c r="AV13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AW13" s="11">
         <v>0</v>
@@ -1810,10 +1867,13 @@
       <c r="BA13" s="11">
         <v>0</v>
       </c>
+      <c r="BB13" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -1866,93 +1926,94 @@
       <c r="AY14" s="15"/>
       <c r="AZ14" s="15"/>
       <c r="BA14" s="15"/>
+      <c r="BB14" s="15"/>
     </row>
-    <row r="15" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O15" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P15" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S15" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T15" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U15" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W15" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X15" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y15" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z15" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA15" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB15" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC15" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD15" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE15" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF15" s="17">
         <v>0</v>
@@ -2020,24 +2081,27 @@
       <c r="BA15" s="17">
         <v>0</v>
       </c>
+      <c r="BB15" s="17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19">
-        <v>1308</v>
+        <v>0</v>
       </c>
       <c r="F16" s="19">
         <v>0</v>
       </c>
       <c r="G16" s="19">
-        <v>0</v>
+        <v>1769</v>
       </c>
       <c r="H16" s="19">
-        <v>1769</v>
+        <v>0</v>
       </c>
       <c r="I16" s="19">
         <v>1401</v>
@@ -2174,8 +2238,11 @@
       <c r="BA16" s="19">
         <v>1342</v>
       </c>
+      <c r="BB16" s="19">
+        <v>883</v>
+      </c>
     </row>
-    <row r="17" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2228,8 +2295,9 @@
       <c r="AY17" s="1"/>
       <c r="AZ17" s="1"/>
       <c r="BA17" s="1"/>
+      <c r="BB17" s="1"/>
     </row>
-    <row r="18" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2282,8 +2350,9 @@
       <c r="AY18" s="1"/>
       <c r="AZ18" s="1"/>
       <c r="BA18" s="1"/>
+      <c r="BB18" s="1"/>
     </row>
-    <row r="19" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2336,10 +2405,11 @@
       <c r="AY19" s="1"/>
       <c r="AZ19" s="1"/>
       <c r="BA19" s="1"/>
+      <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="2:53" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -2490,8 +2560,11 @@
       <c r="BA20" s="6" t="s">
         <v>53</v>
       </c>
+      <c r="BB20" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="21" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2544,10 +2617,11 @@
       <c r="AY21" s="1"/>
       <c r="AZ21" s="1"/>
       <c r="BA21" s="1"/>
+      <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -2600,26 +2674,27 @@
       <c r="AY22" s="9"/>
       <c r="AZ22" s="9"/>
       <c r="BA22" s="9"/>
+      <c r="BB22" s="9"/>
     </row>
-    <row r="23" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D23" s="11"/>
-      <c r="E23" s="11">
-        <v>1202</v>
+      <c r="E23" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" s="11">
+        <v>57</v>
+      </c>
+      <c r="G23" s="11">
         <v>1519</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="I23" s="11">
         <v>1721</v>
@@ -2727,160 +2802,163 @@
         <v>2201</v>
       </c>
       <c r="AR23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB23" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B24" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>56</v>
-      </c>
-      <c r="AS23" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT23" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU23" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV23" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW23" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AX23" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY23" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AZ23" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="BA23" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="2:53" x14ac:dyDescent="0.25">
-      <c r="B24" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AJ24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AM24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AN24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AO24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AP24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AQ24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AR24" s="13">
         <v>0</v>
@@ -2912,137 +2990,140 @@
       <c r="BA24" s="13">
         <v>927</v>
       </c>
+      <c r="BB24" s="13">
+        <v>1609</v>
+      </c>
     </row>
-    <row r="25" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AJ25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AM25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AN25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AO25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AP25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AQ25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AR25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AS25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AT25" s="11">
         <v>248</v>
@@ -3051,7 +3132,7 @@
         <v>135</v>
       </c>
       <c r="AV25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AW25" s="11">
         <v>0</v>
@@ -3068,10 +3149,13 @@
       <c r="BA25" s="11">
         <v>0</v>
       </c>
+      <c r="BB25" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -3124,93 +3208,94 @@
       <c r="AY26" s="15"/>
       <c r="AZ26" s="15"/>
       <c r="BA26" s="15"/>
+      <c r="BB26" s="15"/>
     </row>
-    <row r="27" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L27" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M27" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N27" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O27" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P27" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R27" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S27" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T27" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U27" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V27" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W27" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X27" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y27" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z27" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA27" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB27" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC27" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD27" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE27" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF27" s="17">
         <v>0</v>
@@ -3278,10 +3363,13 @@
       <c r="BA27" s="17">
         <v>0</v>
       </c>
+      <c r="BB27" s="17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -3334,95 +3422,96 @@
       <c r="AY28" s="9"/>
       <c r="AZ28" s="9"/>
       <c r="BA28" s="9"/>
+      <c r="BB28" s="9"/>
     </row>
-    <row r="29" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O29" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P29" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q29" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R29" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S29" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U29" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V29" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W29" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X29" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y29" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z29" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA29" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB29" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC29" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD29" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE29" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF29" s="11">
         <v>-35</v>
@@ -3461,160 +3550,163 @@
         <v>-71</v>
       </c>
       <c r="AR29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB29" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B30" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>56</v>
-      </c>
-      <c r="AS29" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT29" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU29" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV29" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW29" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AX29" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY29" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="AZ29" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="BA29" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="2:53" x14ac:dyDescent="0.25">
-      <c r="B30" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AJ30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AM30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AN30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AO30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AP30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AQ30" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AR30" s="13">
         <v>0</v>
@@ -3646,93 +3738,96 @@
       <c r="BA30" s="13">
         <v>-112</v>
       </c>
+      <c r="BB30" s="13">
+        <v>-99</v>
+      </c>
     </row>
-    <row r="31" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
       <c r="E31" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L31" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M31" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N31" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O31" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P31" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q31" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R31" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S31" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T31" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U31" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V31" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W31" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X31" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y31" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z31" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA31" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB31" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC31" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD31" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE31" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF31" s="17">
         <v>-35</v>
@@ -3800,24 +3895,27 @@
       <c r="BA31" s="17">
         <v>-112</v>
       </c>
+      <c r="BB31" s="17">
+        <v>-99</v>
+      </c>
     </row>
-    <row r="32" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19">
-        <v>1202</v>
+        <v>0</v>
       </c>
       <c r="F32" s="19">
         <v>0</v>
       </c>
       <c r="G32" s="19">
-        <v>0</v>
+        <v>1519</v>
       </c>
       <c r="H32" s="19">
-        <v>1519</v>
+        <v>0</v>
       </c>
       <c r="I32" s="19">
         <v>1721</v>
@@ -3954,8 +4052,11 @@
       <c r="BA32" s="19">
         <v>815</v>
       </c>
+      <c r="BB32" s="19">
+        <v>1510</v>
+      </c>
     </row>
-    <row r="33" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4008,8 +4109,9 @@
       <c r="AY33" s="1"/>
       <c r="AZ33" s="1"/>
       <c r="BA33" s="1"/>
+      <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -4062,8 +4164,9 @@
       <c r="AY34" s="1"/>
       <c r="AZ34" s="1"/>
       <c r="BA34" s="1"/>
+      <c r="BB34" s="1"/>
     </row>
-    <row r="35" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4116,10 +4219,11 @@
       <c r="AY35" s="1"/>
       <c r="AZ35" s="1"/>
       <c r="BA35" s="1"/>
+      <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="2:53" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -4270,8 +4374,11 @@
       <c r="BA36" s="6" t="s">
         <v>53</v>
       </c>
+      <c r="BB36" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="37" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -4324,10 +4431,11 @@
       <c r="AY37" s="1"/>
       <c r="AZ37" s="1"/>
       <c r="BA37" s="1"/>
+      <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -4380,26 +4488,27 @@
       <c r="AY38" s="9"/>
       <c r="AZ38" s="9"/>
       <c r="BA38" s="9"/>
+      <c r="BB38" s="9"/>
     </row>
-    <row r="39" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D39" s="11"/>
-      <c r="E39" s="11">
-        <v>122593</v>
+      <c r="E39" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H39" s="11">
+        <v>57</v>
+      </c>
+      <c r="G39" s="11">
         <v>181406</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="I39" s="11">
         <v>216505</v>
@@ -4507,160 +4616,163 @@
         <v>882566</v>
       </c>
       <c r="AR39" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AS39" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AT39" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AU39" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AV39" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AW39" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AX39" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AY39" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AZ39" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BA39" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="BB39" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="40" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AJ40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AM40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AN40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AO40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AP40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AQ40" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AR40" s="13">
         <v>0</v>
@@ -4692,137 +4804,140 @@
       <c r="BA40" s="13">
         <v>701373</v>
       </c>
+      <c r="BB40" s="13">
+        <v>1307002</v>
+      </c>
     </row>
-    <row r="41" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AJ41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AM41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AN41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AO41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AP41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AQ41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AR41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AS41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AT41" s="11">
         <v>196456</v>
@@ -4831,7 +4946,7 @@
         <v>108064</v>
       </c>
       <c r="AV41" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AW41" s="11">
         <v>0</v>
@@ -4848,10 +4963,13 @@
       <c r="BA41" s="11">
         <v>0</v>
       </c>
+      <c r="BB41" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
@@ -4904,95 +5022,96 @@
       <c r="AY42" s="15"/>
       <c r="AZ42" s="15"/>
       <c r="BA42" s="15"/>
+      <c r="BB42" s="15"/>
     </row>
-    <row r="43" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I43" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J43" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K43" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L43" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M43" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N43" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O43" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P43" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q43" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R43" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S43" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T43" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U43" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V43" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W43" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X43" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y43" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z43" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA43" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB43" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC43" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD43" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE43" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF43" s="17">
         <v>0</v>
@@ -5060,10 +5179,13 @@
       <c r="BA43" s="17">
         <v>0</v>
       </c>
+      <c r="BB43" s="17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -5116,95 +5238,96 @@
       <c r="AY44" s="9"/>
       <c r="AZ44" s="9"/>
       <c r="BA44" s="9"/>
+      <c r="BB44" s="9"/>
     </row>
-    <row r="45" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L45" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O45" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P45" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q45" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R45" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S45" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T45" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U45" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V45" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W45" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X45" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y45" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z45" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA45" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB45" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC45" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD45" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE45" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF45" s="11">
         <v>-8958</v>
@@ -5243,160 +5366,163 @@
         <v>-25646</v>
       </c>
       <c r="AR45" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AS45" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AT45" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AU45" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AV45" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AW45" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AX45" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AY45" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AZ45" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BA45" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="BB45" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="46" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AJ46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AM46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AN46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AO46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AP46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AQ46" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AR46" s="13">
         <v>0</v>
@@ -5428,95 +5554,98 @@
       <c r="BA46" s="13">
         <v>-99147</v>
       </c>
+      <c r="BB46" s="13">
+        <v>-77235</v>
+      </c>
     </row>
-    <row r="47" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I47" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J47" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K47" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L47" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M47" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N47" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O47" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P47" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q47" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R47" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S47" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T47" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U47" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V47" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W47" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X47" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y47" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z47" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA47" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB47" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC47" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD47" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE47" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF47" s="17">
         <v>-8958</v>
@@ -5584,10 +5713,13 @@
       <c r="BA47" s="17">
         <v>-99147</v>
       </c>
+      <c r="BB47" s="17">
+        <v>-77235</v>
+      </c>
     </row>
-    <row r="48" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -5640,95 +5772,96 @@
       <c r="AY48" s="9"/>
       <c r="AZ48" s="9"/>
       <c r="BA48" s="9"/>
+      <c r="BB48" s="9"/>
     </row>
-    <row r="49" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L49" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O49" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P49" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q49" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R49" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S49" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T49" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U49" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V49" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W49" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X49" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y49" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z49" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA49" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB49" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC49" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD49" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE49" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF49" s="11">
         <v>-72004</v>
@@ -5796,24 +5929,27 @@
       <c r="BA49" s="11">
         <v>-12646</v>
       </c>
+      <c r="BB49" s="11">
+        <v>-26022</v>
+      </c>
     </row>
-    <row r="50" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19">
-        <v>122593</v>
+        <v>0</v>
       </c>
       <c r="F50" s="19">
         <v>0</v>
       </c>
       <c r="G50" s="19">
-        <v>0</v>
+        <v>181406</v>
       </c>
       <c r="H50" s="19">
-        <v>181406</v>
+        <v>0</v>
       </c>
       <c r="I50" s="19">
         <v>216505</v>
@@ -5950,8 +6086,11 @@
       <c r="BA50" s="19">
         <v>589580</v>
       </c>
+      <c r="BB50" s="19">
+        <v>1203745</v>
+      </c>
     </row>
-    <row r="51" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6004,8 +6143,9 @@
       <c r="AY51" s="1"/>
       <c r="AZ51" s="1"/>
       <c r="BA51" s="1"/>
+      <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -6058,8 +6198,9 @@
       <c r="AY52" s="1"/>
       <c r="AZ52" s="1"/>
       <c r="BA52" s="1"/>
+      <c r="BB52" s="1"/>
     </row>
-    <row r="53" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6112,10 +6253,11 @@
       <c r="AY53" s="1"/>
       <c r="AZ53" s="1"/>
       <c r="BA53" s="1"/>
+      <c r="BB53" s="1"/>
     </row>
-    <row r="54" spans="2:53" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -6266,8 +6408,11 @@
       <c r="BA54" s="6" t="s">
         <v>53</v>
       </c>
+      <c r="BB54" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="55" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -6320,10 +6465,11 @@
       <c r="AY55" s="1"/>
       <c r="AZ55" s="1"/>
       <c r="BA55" s="1"/>
+      <c r="BB55" s="1"/>
     </row>
-    <row r="56" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -6376,26 +6522,27 @@
       <c r="AY56" s="9"/>
       <c r="AZ56" s="9"/>
       <c r="BA56" s="9"/>
+      <c r="BB56" s="9"/>
     </row>
-    <row r="57" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D57" s="11"/>
-      <c r="E57" s="11">
-        <v>101990849</v>
+      <c r="E57" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H57" s="11">
+        <v>57</v>
+      </c>
+      <c r="G57" s="11">
         <v>119424621</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="I57" s="11">
         <v>125801859</v>
@@ -6503,160 +6650,163 @@
         <v>400984098</v>
       </c>
       <c r="AR57" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AS57" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AT57" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AU57" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AV57" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AW57" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AX57" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AY57" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AZ57" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BA57" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="BB57" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="58" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AJ58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AM58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AN58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AO58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AP58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AQ58" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AR58" s="13">
         <v>423630562</v>
@@ -6688,137 +6838,140 @@
       <c r="BA58" s="13">
         <v>756605178</v>
       </c>
+      <c r="BB58" s="13">
+        <v>812307023</v>
+      </c>
     </row>
-    <row r="59" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AJ59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AM59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AN59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AO59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AP59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AQ59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AR59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AS59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AT59" s="11">
         <v>792161290</v>
@@ -6827,22 +6980,25 @@
         <v>800478871</v>
       </c>
       <c r="AV59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AW59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AX59" s="11">
         <v>-819079408</v>
       </c>
       <c r="AY59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AZ59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BA59" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="BB59" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/ghaza/ghevita/product/monthly.xlsx
+++ b/database/industries/ghaza/ghevita/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="79">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3222,109 +3222,109 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="n">
-        <v>1401</v>
+        <v>1708</v>
       </c>
       <c r="F11" s="12" t="n">
-        <v>1708</v>
+        <v>842</v>
       </c>
       <c r="G11" s="12" t="n">
-        <v>842</v>
+        <v>2266</v>
       </c>
       <c r="H11" s="12" t="n">
-        <v>2266</v>
+        <v>829</v>
       </c>
       <c r="I11" s="12" t="n">
-        <v>829</v>
+        <v>1146</v>
       </c>
       <c r="J11" s="12" t="n">
-        <v>1146</v>
+        <v>1534</v>
       </c>
       <c r="K11" s="12" t="n">
-        <v>1534</v>
+        <v>1847</v>
       </c>
       <c r="L11" s="12" t="n">
-        <v>1847</v>
+        <v>2180</v>
       </c>
       <c r="M11" s="12" t="n">
-        <v>2180</v>
+        <v>2324</v>
       </c>
       <c r="N11" s="12" t="n">
-        <v>2324</v>
+        <v>2226</v>
       </c>
       <c r="O11" s="12" t="n">
-        <v>2226</v>
+        <v>1769</v>
       </c>
       <c r="P11" s="12" t="n">
-        <v>1769</v>
+        <v>1677</v>
       </c>
       <c r="Q11" s="12" t="n">
-        <v>1677</v>
+        <v>1709</v>
       </c>
       <c r="R11" s="12" t="n">
-        <v>1709</v>
+        <v>828</v>
       </c>
       <c r="S11" s="12" t="n">
-        <v>828</v>
+        <v>2040</v>
       </c>
       <c r="T11" s="12" t="n">
-        <v>2040</v>
+        <v>1231</v>
       </c>
       <c r="U11" s="12" t="n">
-        <v>1231</v>
+        <v>1843</v>
       </c>
       <c r="V11" s="12" t="n">
-        <v>1843</v>
+        <v>1983</v>
       </c>
       <c r="W11" s="12" t="n">
-        <v>1983</v>
+        <v>2115</v>
       </c>
       <c r="X11" s="12" t="n">
-        <v>2115</v>
+        <v>2914</v>
       </c>
       <c r="Y11" s="12" t="n">
-        <v>2914</v>
+        <v>2944</v>
       </c>
       <c r="Z11" s="12" t="n">
-        <v>2944</v>
+        <v>2802</v>
       </c>
       <c r="AA11" s="12" t="n">
-        <v>2802</v>
+        <v>1666</v>
       </c>
       <c r="AB11" s="12" t="n">
-        <v>1666</v>
+        <v>1686</v>
       </c>
       <c r="AC11" s="12" t="n">
-        <v>1686</v>
+        <v>1881</v>
       </c>
       <c r="AD11" s="12" t="n">
-        <v>1881</v>
+        <v>644</v>
       </c>
       <c r="AE11" s="12" t="n">
-        <v>644</v>
+        <v>565</v>
       </c>
       <c r="AF11" s="12" t="n">
-        <v>565</v>
+        <v>1284</v>
       </c>
       <c r="AG11" s="12" t="n">
-        <v>1284</v>
+        <v>1452</v>
       </c>
       <c r="AH11" s="12" t="n">
-        <v>1452</v>
+        <v>1506</v>
       </c>
       <c r="AI11" s="12" t="n">
-        <v>1506</v>
+        <v>2020</v>
       </c>
       <c r="AJ11" s="12" t="n">
-        <v>2020</v>
+        <v>1410</v>
       </c>
       <c r="AK11" s="12" t="n">
-        <v>1410</v>
+        <v>1628</v>
       </c>
       <c r="AL11" s="12" t="n">
-        <v>1628</v>
-      </c>
-      <c r="AM11" s="12" t="n">
         <v>2090</v>
+      </c>
+      <c r="AM11" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN11" s="13" t="s">
         <v>57</v>
@@ -3518,17 +3518,17 @@
       <c r="AX12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AY12" s="16" t="s">
-        <v>57</v>
+      <c r="AY12" s="16" t="n">
+        <v>143</v>
       </c>
       <c r="AZ12" s="16" t="n">
-        <v>143</v>
+        <v>271</v>
       </c>
       <c r="BA12" s="16" t="n">
-        <v>271</v>
+        <v>182</v>
       </c>
       <c r="BB12" s="16" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3641,53 +3641,53 @@
       <c r="AL13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AM13" s="13" t="s">
-        <v>57</v>
+      <c r="AM13" s="13" t="n">
+        <v>1557</v>
       </c>
       <c r="AN13" s="13" t="n">
-        <v>1557</v>
+        <v>985</v>
       </c>
       <c r="AO13" s="13" t="n">
-        <v>985</v>
+        <v>1006</v>
       </c>
       <c r="AP13" s="13" t="n">
-        <v>1006</v>
+        <v>1457</v>
       </c>
       <c r="AQ13" s="13" t="n">
-        <v>1457</v>
+        <v>1863</v>
       </c>
       <c r="AR13" s="13" t="n">
-        <v>1863</v>
+        <v>1601</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>1601</v>
+        <v>1442</v>
       </c>
       <c r="AT13" s="13" t="n">
-        <v>1442</v>
+        <v>2003</v>
       </c>
       <c r="AU13" s="13" t="s">
         <v>57</v>
       </c>
       <c r="AV13" s="13" t="n">
-        <v>2003</v>
+        <v>1836</v>
       </c>
       <c r="AW13" s="13" t="n">
-        <v>1836</v>
+        <v>1342</v>
       </c>
       <c r="AX13" s="13" t="n">
-        <v>1342</v>
+        <v>883</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>883</v>
+        <v>745</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>745</v>
+        <v>785</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>785</v>
+        <v>1040</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>1040</v>
+        <v>714</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3806,17 +3806,17 @@
       <c r="AN14" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AO14" s="16" t="s">
-        <v>57</v>
+      <c r="AO14" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AP14" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AQ14" s="16" t="n">
+      <c r="AQ14" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR14" s="16" t="n">
         <v>0</v>
-      </c>
-      <c r="AR14" s="16" t="s">
-        <v>57</v>
       </c>
       <c r="AS14" s="16" t="n">
         <v>0</v>
@@ -3836,8 +3836,8 @@
       <c r="AX14" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AY14" s="16" t="n">
-        <v>0</v>
+      <c r="AY14" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AZ14" s="16" t="s">
         <v>57</v>
@@ -3995,17 +3995,17 @@
       <c r="AX15" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AY15" s="13" t="s">
-        <v>57</v>
+      <c r="AY15" s="13" t="n">
+        <v>129</v>
       </c>
       <c r="AZ15" s="13" t="n">
-        <v>129</v>
+        <v>228</v>
       </c>
       <c r="BA15" s="13" t="n">
-        <v>228</v>
+        <v>97</v>
       </c>
       <c r="BB15" s="13" t="n">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4154,17 +4154,17 @@
       <c r="AX16" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AY16" s="16" t="s">
-        <v>57</v>
+      <c r="AY16" s="16" t="n">
+        <v>105</v>
       </c>
       <c r="AZ16" s="16" t="n">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="BA16" s="16" t="n">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="BB16" s="16" t="n">
-        <v>122</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4313,17 +4313,17 @@
       <c r="AX17" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AY17" s="13" t="s">
-        <v>57</v>
+      <c r="AY17" s="13" t="n">
+        <v>67</v>
       </c>
       <c r="AZ17" s="13" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="BA17" s="13" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="BB17" s="13" t="n">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4455,8 +4455,8 @@
       <c r="Z19" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="AA19" s="20" t="s">
-        <v>57</v>
+      <c r="AA19" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="AB19" s="20" t="n">
         <v>0</v>
@@ -4547,154 +4547,154 @@
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22" t="n">
-        <v>1401</v>
+        <v>1708</v>
       </c>
       <c r="F20" s="22" t="n">
-        <v>1708</v>
+        <v>842</v>
       </c>
       <c r="G20" s="22" t="n">
-        <v>842</v>
+        <v>2266</v>
       </c>
       <c r="H20" s="22" t="n">
-        <v>2266</v>
+        <v>829</v>
       </c>
       <c r="I20" s="22" t="n">
-        <v>829</v>
+        <v>1146</v>
       </c>
       <c r="J20" s="22" t="n">
-        <v>1146</v>
+        <v>1534</v>
       </c>
       <c r="K20" s="22" t="n">
-        <v>1534</v>
+        <v>1847</v>
       </c>
       <c r="L20" s="22" t="n">
-        <v>1847</v>
+        <v>2180</v>
       </c>
       <c r="M20" s="22" t="n">
-        <v>2180</v>
+        <v>2324</v>
       </c>
       <c r="N20" s="22" t="n">
-        <v>2324</v>
+        <v>2226</v>
       </c>
       <c r="O20" s="22" t="n">
-        <v>2226</v>
+        <v>1769</v>
       </c>
       <c r="P20" s="22" t="n">
-        <v>1769</v>
+        <v>1677</v>
       </c>
       <c r="Q20" s="22" t="n">
-        <v>1677</v>
+        <v>1709</v>
       </c>
       <c r="R20" s="22" t="n">
-        <v>1709</v>
+        <v>828</v>
       </c>
       <c r="S20" s="22" t="n">
-        <v>828</v>
+        <v>2040</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>2040</v>
+        <v>1231</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>1231</v>
+        <v>1843</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>1843</v>
+        <v>1983</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>1983</v>
+        <v>2115</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>2115</v>
+        <v>2914</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>2914</v>
+        <v>2944</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>2944</v>
+        <v>2802</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>2802</v>
+        <v>1666</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>1666</v>
+        <v>1686</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>1686</v>
+        <v>1881</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>1881</v>
+        <v>644</v>
       </c>
       <c r="AE20" s="22" t="n">
-        <v>644</v>
+        <v>565</v>
       </c>
       <c r="AF20" s="22" t="n">
-        <v>565</v>
+        <v>1284</v>
       </c>
       <c r="AG20" s="22" t="n">
-        <v>1284</v>
+        <v>1452</v>
       </c>
       <c r="AH20" s="22" t="n">
-        <v>1452</v>
+        <v>1506</v>
       </c>
       <c r="AI20" s="22" t="n">
-        <v>1506</v>
+        <v>2020</v>
       </c>
       <c r="AJ20" s="22" t="n">
-        <v>2020</v>
+        <v>1410</v>
       </c>
       <c r="AK20" s="22" t="n">
-        <v>1410</v>
+        <v>1628</v>
       </c>
       <c r="AL20" s="22" t="n">
-        <v>1628</v>
+        <v>2090</v>
       </c>
       <c r="AM20" s="22" t="n">
-        <v>2090</v>
+        <v>1557</v>
       </c>
       <c r="AN20" s="22" t="n">
-        <v>1557</v>
+        <v>985</v>
       </c>
       <c r="AO20" s="22" t="n">
-        <v>985</v>
+        <v>1006</v>
       </c>
       <c r="AP20" s="22" t="n">
-        <v>1006</v>
+        <v>1457</v>
       </c>
       <c r="AQ20" s="22" t="n">
-        <v>1457</v>
+        <v>1863</v>
       </c>
       <c r="AR20" s="22" t="n">
-        <v>1863</v>
+        <v>1601</v>
       </c>
       <c r="AS20" s="22" t="n">
-        <v>1601</v>
+        <v>1442</v>
       </c>
       <c r="AT20" s="22" t="n">
-        <v>1442</v>
+        <v>2003</v>
       </c>
       <c r="AU20" s="22" t="n">
         <v>0</v>
       </c>
       <c r="AV20" s="22" t="n">
-        <v>2003</v>
+        <v>1836</v>
       </c>
       <c r="AW20" s="22" t="n">
-        <v>1836</v>
+        <v>1342</v>
       </c>
       <c r="AX20" s="22" t="n">
-        <v>1342</v>
+        <v>883</v>
       </c>
       <c r="AY20" s="22" t="n">
-        <v>883</v>
+        <v>1189</v>
       </c>
       <c r="AZ20" s="22" t="n">
-        <v>1189</v>
+        <v>1458</v>
       </c>
       <c r="BA20" s="22" t="n">
-        <v>1458</v>
+        <v>1522</v>
       </c>
       <c r="BB20" s="22" t="n">
-        <v>1522</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5140,109 +5140,109 @@
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13" t="n">
-        <v>1721</v>
+        <v>1890</v>
       </c>
       <c r="F27" s="13" t="n">
-        <v>1890</v>
+        <v>678</v>
       </c>
       <c r="G27" s="13" t="n">
-        <v>678</v>
+        <v>2183</v>
       </c>
       <c r="H27" s="13" t="n">
-        <v>2183</v>
+        <v>1058</v>
       </c>
       <c r="I27" s="13" t="n">
-        <v>1058</v>
+        <v>1293</v>
       </c>
       <c r="J27" s="13" t="n">
-        <v>1293</v>
+        <v>1843</v>
       </c>
       <c r="K27" s="13" t="n">
-        <v>1843</v>
+        <v>1850</v>
       </c>
       <c r="L27" s="13" t="n">
-        <v>1850</v>
+        <v>2130</v>
       </c>
       <c r="M27" s="13" t="n">
-        <v>2130</v>
+        <v>2180</v>
       </c>
       <c r="N27" s="13" t="n">
-        <v>2180</v>
+        <v>2383</v>
       </c>
       <c r="O27" s="13" t="n">
-        <v>2383</v>
+        <v>1545</v>
       </c>
       <c r="P27" s="13" t="n">
-        <v>1545</v>
+        <v>1941</v>
       </c>
       <c r="Q27" s="13" t="n">
-        <v>1941</v>
+        <v>2356</v>
       </c>
       <c r="R27" s="13" t="n">
-        <v>2356</v>
+        <v>715</v>
       </c>
       <c r="S27" s="13" t="n">
-        <v>715</v>
+        <v>2408</v>
       </c>
       <c r="T27" s="13" t="n">
-        <v>2408</v>
+        <v>1038</v>
       </c>
       <c r="U27" s="13" t="n">
-        <v>1038</v>
+        <v>2311</v>
       </c>
       <c r="V27" s="13" t="n">
-        <v>2311</v>
+        <v>2111</v>
       </c>
       <c r="W27" s="13" t="n">
-        <v>2111</v>
+        <v>2960</v>
       </c>
       <c r="X27" s="13" t="n">
-        <v>2960</v>
+        <v>3089</v>
       </c>
       <c r="Y27" s="13" t="n">
-        <v>3089</v>
+        <v>3543</v>
       </c>
       <c r="Z27" s="13" t="n">
-        <v>3543</v>
+        <v>2519</v>
       </c>
       <c r="AA27" s="13" t="n">
-        <v>2519</v>
+        <v>2501</v>
       </c>
       <c r="AB27" s="13" t="n">
-        <v>2501</v>
+        <v>2800</v>
       </c>
       <c r="AC27" s="13" t="n">
-        <v>2800</v>
+        <v>2249</v>
       </c>
       <c r="AD27" s="13" t="n">
-        <v>2249</v>
+        <v>594</v>
       </c>
       <c r="AE27" s="13" t="n">
-        <v>594</v>
+        <v>1471</v>
       </c>
       <c r="AF27" s="13" t="n">
-        <v>1471</v>
+        <v>1523</v>
       </c>
       <c r="AG27" s="13" t="n">
-        <v>1523</v>
+        <v>1401</v>
       </c>
       <c r="AH27" s="13" t="n">
-        <v>1401</v>
+        <v>1346</v>
       </c>
       <c r="AI27" s="13" t="n">
-        <v>1346</v>
+        <v>1749</v>
       </c>
       <c r="AJ27" s="13" t="n">
-        <v>1749</v>
+        <v>1637</v>
       </c>
       <c r="AK27" s="13" t="n">
-        <v>1637</v>
+        <v>2142</v>
       </c>
       <c r="AL27" s="13" t="n">
-        <v>2142</v>
-      </c>
-      <c r="AM27" s="13" t="n">
         <v>2201</v>
+      </c>
+      <c r="AM27" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN27" s="13" t="s">
         <v>57</v>
@@ -5436,17 +5436,17 @@
       <c r="AX28" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AY28" s="16" t="s">
-        <v>57</v>
+      <c r="AY28" s="16" t="n">
+        <v>208</v>
       </c>
       <c r="AZ28" s="16" t="n">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="BA28" s="16" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="BB28" s="16" t="n">
-        <v>230</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5559,53 +5559,53 @@
       <c r="AL29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AM29" s="13" t="s">
-        <v>57</v>
+      <c r="AM29" s="13" t="n">
+        <v>1502</v>
       </c>
       <c r="AN29" s="13" t="n">
-        <v>1502</v>
+        <v>906</v>
       </c>
       <c r="AO29" s="13" t="n">
-        <v>906</v>
+        <v>1021</v>
       </c>
       <c r="AP29" s="13" t="n">
-        <v>1021</v>
+        <v>1809</v>
       </c>
       <c r="AQ29" s="13" t="n">
-        <v>1809</v>
+        <v>1792</v>
       </c>
       <c r="AR29" s="13" t="n">
-        <v>1792</v>
+        <v>1428</v>
       </c>
       <c r="AS29" s="13" t="n">
-        <v>1428</v>
+        <v>1781</v>
       </c>
       <c r="AT29" s="13" t="n">
-        <v>1781</v>
+        <v>1786</v>
       </c>
       <c r="AU29" s="13" t="s">
         <v>57</v>
       </c>
       <c r="AV29" s="13" t="n">
-        <v>1786</v>
+        <v>1578</v>
       </c>
       <c r="AW29" s="13" t="n">
-        <v>1578</v>
+        <v>927</v>
       </c>
       <c r="AX29" s="13" t="n">
-        <v>927</v>
+        <v>1609</v>
       </c>
       <c r="AY29" s="13" t="n">
-        <v>1609</v>
+        <v>978</v>
       </c>
       <c r="AZ29" s="13" t="n">
-        <v>978</v>
+        <v>1040</v>
       </c>
       <c r="BA29" s="13" t="n">
-        <v>1040</v>
+        <v>1131</v>
       </c>
       <c r="BB29" s="13" t="n">
-        <v>1131</v>
+        <v>744</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5724,17 +5724,17 @@
       <c r="AN30" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AO30" s="16" t="s">
-        <v>57</v>
+      <c r="AO30" s="16" t="n">
+        <v>248</v>
       </c>
       <c r="AP30" s="16" t="n">
-        <v>248</v>
-      </c>
-      <c r="AQ30" s="16" t="n">
         <v>135</v>
       </c>
-      <c r="AR30" s="16" t="s">
-        <v>57</v>
+      <c r="AQ30" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR30" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AS30" s="16" t="n">
         <v>0</v>
@@ -5754,8 +5754,8 @@
       <c r="AX30" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AY30" s="16" t="n">
-        <v>0</v>
+      <c r="AY30" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AZ30" s="16" t="s">
         <v>57</v>
@@ -5913,17 +5913,17 @@
       <c r="AX31" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AY31" s="13" t="s">
-        <v>57</v>
+      <c r="AY31" s="13" t="n">
+        <v>126</v>
       </c>
       <c r="AZ31" s="13" t="n">
+        <v>209</v>
+      </c>
+      <c r="BA31" s="13" t="n">
         <v>126</v>
       </c>
-      <c r="BA31" s="13" t="n">
-        <v>209</v>
-      </c>
       <c r="BB31" s="13" t="n">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6072,17 +6072,17 @@
       <c r="AX32" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AY32" s="16" t="s">
-        <v>57</v>
+      <c r="AY32" s="16" t="n">
+        <v>83</v>
       </c>
       <c r="AZ32" s="16" t="n">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="BA32" s="16" t="n">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="BB32" s="16" t="n">
-        <v>116</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6231,17 +6231,17 @@
       <c r="AX33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AY33" s="13" t="s">
-        <v>57</v>
+      <c r="AY33" s="13" t="n">
+        <v>61</v>
       </c>
       <c r="AZ33" s="13" t="n">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="BA33" s="13" t="n">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="BB33" s="13" t="n">
-        <v>95</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6373,8 +6373,8 @@
       <c r="Z35" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="AA35" s="20" t="s">
-        <v>57</v>
+      <c r="AA35" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="AB35" s="20" t="n">
         <v>0</v>
@@ -6589,44 +6589,44 @@
       <c r="Z37" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AA37" s="13" t="s">
-        <v>57</v>
+      <c r="AA37" s="13" t="n">
+        <v>-35</v>
       </c>
       <c r="AB37" s="13" t="n">
-        <v>-35</v>
+        <v>-68</v>
       </c>
       <c r="AC37" s="13" t="n">
-        <v>-68</v>
+        <v>-78</v>
       </c>
       <c r="AD37" s="13" t="n">
-        <v>-78</v>
+        <v>-18</v>
       </c>
       <c r="AE37" s="13" t="n">
-        <v>-18</v>
+        <v>-95</v>
       </c>
       <c r="AF37" s="13" t="n">
-        <v>-95</v>
+        <v>-32</v>
       </c>
       <c r="AG37" s="13" t="n">
-        <v>-32</v>
+        <v>-15</v>
       </c>
       <c r="AH37" s="13" t="n">
-        <v>-15</v>
+        <v>-37</v>
       </c>
       <c r="AI37" s="13" t="n">
-        <v>-37</v>
+        <v>-19</v>
       </c>
       <c r="AJ37" s="13" t="n">
-        <v>-19</v>
+        <v>-185</v>
       </c>
       <c r="AK37" s="13" t="n">
-        <v>-185</v>
+        <v>-43</v>
       </c>
       <c r="AL37" s="13" t="n">
-        <v>-43</v>
-      </c>
-      <c r="AM37" s="13" t="n">
         <v>-71</v>
+      </c>
+      <c r="AM37" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN37" s="13" t="s">
         <v>57</v>
@@ -6784,53 +6784,53 @@
       <c r="AL38" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AM38" s="16" t="s">
-        <v>57</v>
+      <c r="AM38" s="16" t="n">
+        <v>-31</v>
       </c>
       <c r="AN38" s="16" t="n">
-        <v>-31</v>
+        <v>-43</v>
       </c>
       <c r="AO38" s="16" t="n">
-        <v>-43</v>
+        <v>-16</v>
       </c>
       <c r="AP38" s="16" t="n">
+        <v>-35</v>
+      </c>
+      <c r="AQ38" s="16" t="n">
+        <v>-23</v>
+      </c>
+      <c r="AR38" s="16" t="n">
+        <v>-15</v>
+      </c>
+      <c r="AS38" s="16" t="n">
+        <v>-24</v>
+      </c>
+      <c r="AT38" s="16" t="n">
+        <v>-8</v>
+      </c>
+      <c r="AU38" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV38" s="16" t="n">
         <v>-16</v>
       </c>
-      <c r="AQ38" s="16" t="n">
-        <v>-35</v>
-      </c>
-      <c r="AR38" s="16" t="n">
-        <v>-23</v>
-      </c>
-      <c r="AS38" s="16" t="n">
-        <v>-15</v>
-      </c>
-      <c r="AT38" s="16" t="n">
-        <v>-24</v>
-      </c>
-      <c r="AU38" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV38" s="16" t="n">
-        <v>-8</v>
-      </c>
       <c r="AW38" s="16" t="n">
-        <v>-16</v>
+        <v>-112</v>
       </c>
       <c r="AX38" s="16" t="n">
-        <v>-112</v>
+        <v>-99</v>
       </c>
       <c r="AY38" s="16" t="n">
-        <v>-99</v>
+        <v>-144</v>
       </c>
       <c r="AZ38" s="16" t="n">
-        <v>-144</v>
+        <v>-163</v>
       </c>
       <c r="BA38" s="16" t="n">
-        <v>-163</v>
+        <v>-120</v>
       </c>
       <c r="BB38" s="16" t="n">
-        <v>-120</v>
+        <v>-65</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6905,89 +6905,89 @@
       <c r="Z39" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="AA39" s="20" t="s">
-        <v>57</v>
+      <c r="AA39" s="20" t="n">
+        <v>-35</v>
       </c>
       <c r="AB39" s="20" t="n">
+        <v>-68</v>
+      </c>
+      <c r="AC39" s="20" t="n">
+        <v>-78</v>
+      </c>
+      <c r="AD39" s="20" t="n">
+        <v>-18</v>
+      </c>
+      <c r="AE39" s="20" t="n">
+        <v>-95</v>
+      </c>
+      <c r="AF39" s="20" t="n">
+        <v>-32</v>
+      </c>
+      <c r="AG39" s="20" t="n">
+        <v>-15</v>
+      </c>
+      <c r="AH39" s="20" t="n">
+        <v>-37</v>
+      </c>
+      <c r="AI39" s="20" t="n">
+        <v>-19</v>
+      </c>
+      <c r="AJ39" s="20" t="n">
+        <v>-185</v>
+      </c>
+      <c r="AK39" s="20" t="n">
+        <v>-43</v>
+      </c>
+      <c r="AL39" s="20" t="n">
+        <v>-71</v>
+      </c>
+      <c r="AM39" s="20" t="n">
+        <v>-31</v>
+      </c>
+      <c r="AN39" s="20" t="n">
+        <v>-43</v>
+      </c>
+      <c r="AO39" s="20" t="n">
+        <v>-16</v>
+      </c>
+      <c r="AP39" s="20" t="n">
         <v>-35</v>
       </c>
-      <c r="AC39" s="20" t="n">
-        <v>-68</v>
-      </c>
-      <c r="AD39" s="20" t="n">
-        <v>-78</v>
-      </c>
-      <c r="AE39" s="20" t="n">
-        <v>-18</v>
-      </c>
-      <c r="AF39" s="20" t="n">
-        <v>-95</v>
-      </c>
-      <c r="AG39" s="20" t="n">
-        <v>-32</v>
-      </c>
-      <c r="AH39" s="20" t="n">
+      <c r="AQ39" s="20" t="n">
+        <v>-23</v>
+      </c>
+      <c r="AR39" s="20" t="n">
         <v>-15</v>
       </c>
-      <c r="AI39" s="20" t="n">
-        <v>-37</v>
-      </c>
-      <c r="AJ39" s="20" t="n">
-        <v>-19</v>
-      </c>
-      <c r="AK39" s="20" t="n">
-        <v>-185</v>
-      </c>
-      <c r="AL39" s="20" t="n">
-        <v>-43</v>
-      </c>
-      <c r="AM39" s="20" t="n">
-        <v>-71</v>
-      </c>
-      <c r="AN39" s="20" t="n">
-        <v>-31</v>
-      </c>
-      <c r="AO39" s="20" t="n">
-        <v>-43</v>
-      </c>
-      <c r="AP39" s="20" t="n">
+      <c r="AS39" s="20" t="n">
+        <v>-24</v>
+      </c>
+      <c r="AT39" s="20" t="n">
+        <v>-8</v>
+      </c>
+      <c r="AU39" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV39" s="20" t="n">
         <v>-16</v>
       </c>
-      <c r="AQ39" s="20" t="n">
-        <v>-35</v>
-      </c>
-      <c r="AR39" s="20" t="n">
-        <v>-23</v>
-      </c>
-      <c r="AS39" s="20" t="n">
-        <v>-15</v>
-      </c>
-      <c r="AT39" s="20" t="n">
-        <v>-24</v>
-      </c>
-      <c r="AU39" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV39" s="20" t="n">
-        <v>-8</v>
-      </c>
       <c r="AW39" s="20" t="n">
-        <v>-16</v>
+        <v>-112</v>
       </c>
       <c r="AX39" s="20" t="n">
-        <v>-112</v>
+        <v>-99</v>
       </c>
       <c r="AY39" s="20" t="n">
-        <v>-99</v>
+        <v>-144</v>
       </c>
       <c r="AZ39" s="20" t="n">
-        <v>-144</v>
+        <v>-163</v>
       </c>
       <c r="BA39" s="20" t="n">
-        <v>-163</v>
+        <v>-120</v>
       </c>
       <c r="BB39" s="20" t="n">
-        <v>-120</v>
+        <v>-65</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6997,154 +6997,154 @@
       <c r="C40" s="22"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22" t="n">
-        <v>1721</v>
+        <v>1890</v>
       </c>
       <c r="F40" s="22" t="n">
-        <v>1890</v>
+        <v>678</v>
       </c>
       <c r="G40" s="22" t="n">
-        <v>678</v>
+        <v>2183</v>
       </c>
       <c r="H40" s="22" t="n">
-        <v>2183</v>
+        <v>1058</v>
       </c>
       <c r="I40" s="22" t="n">
-        <v>1058</v>
+        <v>1293</v>
       </c>
       <c r="J40" s="22" t="n">
-        <v>1293</v>
+        <v>1843</v>
       </c>
       <c r="K40" s="22" t="n">
-        <v>1843</v>
+        <v>1850</v>
       </c>
       <c r="L40" s="22" t="n">
-        <v>1850</v>
+        <v>2130</v>
       </c>
       <c r="M40" s="22" t="n">
+        <v>2180</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>2383</v>
+      </c>
+      <c r="O40" s="22" t="n">
+        <v>1545</v>
+      </c>
+      <c r="P40" s="22" t="n">
+        <v>1941</v>
+      </c>
+      <c r="Q40" s="22" t="n">
+        <v>2356</v>
+      </c>
+      <c r="R40" s="22" t="n">
+        <v>715</v>
+      </c>
+      <c r="S40" s="22" t="n">
+        <v>2408</v>
+      </c>
+      <c r="T40" s="22" t="n">
+        <v>1038</v>
+      </c>
+      <c r="U40" s="22" t="n">
+        <v>2311</v>
+      </c>
+      <c r="V40" s="22" t="n">
+        <v>2111</v>
+      </c>
+      <c r="W40" s="22" t="n">
+        <v>2960</v>
+      </c>
+      <c r="X40" s="22" t="n">
+        <v>3089</v>
+      </c>
+      <c r="Y40" s="22" t="n">
+        <v>3543</v>
+      </c>
+      <c r="Z40" s="22" t="n">
+        <v>2519</v>
+      </c>
+      <c r="AA40" s="22" t="n">
+        <v>2466</v>
+      </c>
+      <c r="AB40" s="22" t="n">
+        <v>2732</v>
+      </c>
+      <c r="AC40" s="22" t="n">
+        <v>2171</v>
+      </c>
+      <c r="AD40" s="22" t="n">
+        <v>576</v>
+      </c>
+      <c r="AE40" s="22" t="n">
+        <v>1376</v>
+      </c>
+      <c r="AF40" s="22" t="n">
+        <v>1491</v>
+      </c>
+      <c r="AG40" s="22" t="n">
+        <v>1386</v>
+      </c>
+      <c r="AH40" s="22" t="n">
+        <v>1309</v>
+      </c>
+      <c r="AI40" s="22" t="n">
+        <v>1730</v>
+      </c>
+      <c r="AJ40" s="22" t="n">
+        <v>1452</v>
+      </c>
+      <c r="AK40" s="22" t="n">
+        <v>2099</v>
+      </c>
+      <c r="AL40" s="22" t="n">
         <v>2130</v>
       </c>
-      <c r="N40" s="22" t="n">
-        <v>2180</v>
-      </c>
-      <c r="O40" s="22" t="n">
-        <v>2383</v>
-      </c>
-      <c r="P40" s="22" t="n">
-        <v>1545</v>
-      </c>
-      <c r="Q40" s="22" t="n">
-        <v>1941</v>
-      </c>
-      <c r="R40" s="22" t="n">
-        <v>2356</v>
-      </c>
-      <c r="S40" s="22" t="n">
-        <v>715</v>
-      </c>
-      <c r="T40" s="22" t="n">
-        <v>2408</v>
-      </c>
-      <c r="U40" s="22" t="n">
-        <v>1038</v>
-      </c>
-      <c r="V40" s="22" t="n">
-        <v>2311</v>
-      </c>
-      <c r="W40" s="22" t="n">
-        <v>2111</v>
-      </c>
-      <c r="X40" s="22" t="n">
-        <v>2960</v>
-      </c>
-      <c r="Y40" s="22" t="n">
-        <v>3089</v>
-      </c>
-      <c r="Z40" s="22" t="n">
-        <v>3543</v>
-      </c>
-      <c r="AA40" s="22" t="n">
-        <v>2519</v>
-      </c>
-      <c r="AB40" s="22" t="n">
-        <v>2466</v>
-      </c>
-      <c r="AC40" s="22" t="n">
-        <v>2732</v>
-      </c>
-      <c r="AD40" s="22" t="n">
-        <v>2171</v>
-      </c>
-      <c r="AE40" s="22" t="n">
-        <v>576</v>
-      </c>
-      <c r="AF40" s="22" t="n">
-        <v>1376</v>
-      </c>
-      <c r="AG40" s="22" t="n">
-        <v>1491</v>
-      </c>
-      <c r="AH40" s="22" t="n">
-        <v>1386</v>
-      </c>
-      <c r="AI40" s="22" t="n">
-        <v>1309</v>
-      </c>
-      <c r="AJ40" s="22" t="n">
-        <v>1730</v>
-      </c>
-      <c r="AK40" s="22" t="n">
-        <v>1452</v>
-      </c>
-      <c r="AL40" s="22" t="n">
-        <v>2099</v>
-      </c>
       <c r="AM40" s="22" t="n">
-        <v>2130</v>
+        <v>1471</v>
       </c>
       <c r="AN40" s="22" t="n">
-        <v>1471</v>
+        <v>863</v>
       </c>
       <c r="AO40" s="22" t="n">
-        <v>863</v>
+        <v>1253</v>
       </c>
       <c r="AP40" s="22" t="n">
-        <v>1253</v>
+        <v>1909</v>
       </c>
       <c r="AQ40" s="22" t="n">
-        <v>1909</v>
+        <v>1769</v>
       </c>
       <c r="AR40" s="22" t="n">
-        <v>1769</v>
+        <v>1413</v>
       </c>
       <c r="AS40" s="22" t="n">
-        <v>1413</v>
+        <v>1757</v>
       </c>
       <c r="AT40" s="22" t="n">
-        <v>1757</v>
+        <v>1778</v>
       </c>
       <c r="AU40" s="22" t="n">
         <v>0</v>
       </c>
       <c r="AV40" s="22" t="n">
-        <v>1778</v>
+        <v>1562</v>
       </c>
       <c r="AW40" s="22" t="n">
-        <v>1562</v>
+        <v>815</v>
       </c>
       <c r="AX40" s="22" t="n">
-        <v>815</v>
+        <v>1510</v>
       </c>
       <c r="AY40" s="22" t="n">
-        <v>1510</v>
+        <v>1312</v>
       </c>
       <c r="AZ40" s="22" t="n">
-        <v>1312</v>
+        <v>1505</v>
       </c>
       <c r="BA40" s="22" t="n">
-        <v>1505</v>
+        <v>1578</v>
       </c>
       <c r="BB40" s="22" t="n">
-        <v>1578</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7590,109 +7590,109 @@
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="13" t="n">
-        <v>216505</v>
+        <v>290877</v>
       </c>
       <c r="F47" s="13" t="n">
-        <v>290877</v>
+        <v>83909</v>
       </c>
       <c r="G47" s="13" t="n">
-        <v>83909</v>
+        <v>318919</v>
       </c>
       <c r="H47" s="13" t="n">
-        <v>318919</v>
+        <v>166916</v>
       </c>
       <c r="I47" s="13" t="n">
-        <v>166916</v>
+        <v>205591</v>
       </c>
       <c r="J47" s="13" t="n">
-        <v>205591</v>
+        <v>303961</v>
       </c>
       <c r="K47" s="13" t="n">
-        <v>303961</v>
+        <v>301594</v>
       </c>
       <c r="L47" s="13" t="n">
-        <v>301594</v>
+        <v>353297</v>
       </c>
       <c r="M47" s="13" t="n">
-        <v>353297</v>
+        <v>434018</v>
       </c>
       <c r="N47" s="13" t="n">
-        <v>434018</v>
+        <v>473562</v>
       </c>
       <c r="O47" s="13" t="n">
-        <v>473562</v>
+        <v>320629</v>
       </c>
       <c r="P47" s="13" t="n">
-        <v>320629</v>
+        <v>407959</v>
       </c>
       <c r="Q47" s="13" t="n">
-        <v>407959</v>
+        <v>494434</v>
       </c>
       <c r="R47" s="13" t="n">
-        <v>494434</v>
+        <v>132840</v>
       </c>
       <c r="S47" s="13" t="n">
-        <v>132840</v>
+        <v>453935</v>
       </c>
       <c r="T47" s="13" t="n">
-        <v>453935</v>
+        <v>205869</v>
       </c>
       <c r="U47" s="13" t="n">
-        <v>205869</v>
+        <v>474091</v>
       </c>
       <c r="V47" s="13" t="n">
-        <v>474091</v>
+        <v>416102</v>
       </c>
       <c r="W47" s="13" t="n">
-        <v>416102</v>
+        <v>649924</v>
       </c>
       <c r="X47" s="13" t="n">
-        <v>649924</v>
+        <v>716083</v>
       </c>
       <c r="Y47" s="13" t="n">
-        <v>716083</v>
+        <v>791330</v>
       </c>
       <c r="Z47" s="13" t="n">
-        <v>791330</v>
+        <v>609930</v>
       </c>
       <c r="AA47" s="13" t="n">
-        <v>609930</v>
+        <v>633339</v>
       </c>
       <c r="AB47" s="13" t="n">
-        <v>633339</v>
+        <v>755798</v>
       </c>
       <c r="AC47" s="13" t="n">
-        <v>755798</v>
+        <v>552692</v>
       </c>
       <c r="AD47" s="13" t="n">
-        <v>552692</v>
+        <v>162396</v>
       </c>
       <c r="AE47" s="13" t="n">
-        <v>162396</v>
+        <v>392699</v>
       </c>
       <c r="AF47" s="13" t="n">
-        <v>392699</v>
+        <v>431097</v>
       </c>
       <c r="AG47" s="13" t="n">
-        <v>431097</v>
+        <v>437774</v>
       </c>
       <c r="AH47" s="13" t="n">
-        <v>437774</v>
+        <v>436606</v>
       </c>
       <c r="AI47" s="13" t="n">
-        <v>436606</v>
+        <v>606759</v>
       </c>
       <c r="AJ47" s="13" t="n">
-        <v>606759</v>
+        <v>644948</v>
       </c>
       <c r="AK47" s="13" t="n">
-        <v>644948</v>
+        <v>839646</v>
       </c>
       <c r="AL47" s="13" t="n">
-        <v>839646</v>
-      </c>
-      <c r="AM47" s="13" t="n">
         <v>882566</v>
+      </c>
+      <c r="AM47" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN47" s="13" t="s">
         <v>57</v>
@@ -7886,17 +7886,17 @@
       <c r="AX48" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AY48" s="16" t="s">
-        <v>57</v>
+      <c r="AY48" s="16" t="n">
+        <v>188260</v>
       </c>
       <c r="AZ48" s="16" t="n">
-        <v>188260</v>
+        <v>211086</v>
       </c>
       <c r="BA48" s="16" t="n">
-        <v>211086</v>
+        <v>222202</v>
       </c>
       <c r="BB48" s="16" t="n">
-        <v>222202</v>
+        <v>138580</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8009,53 +8009,53 @@
       <c r="AL49" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AM49" s="13" t="s">
-        <v>57</v>
+      <c r="AM49" s="13" t="n">
+        <v>623724</v>
       </c>
       <c r="AN49" s="13" t="n">
-        <v>623724</v>
+        <v>383955</v>
       </c>
       <c r="AO49" s="13" t="n">
-        <v>383955</v>
+        <v>510242</v>
       </c>
       <c r="AP49" s="13" t="n">
-        <v>510242</v>
+        <v>989705</v>
       </c>
       <c r="AQ49" s="13" t="n">
-        <v>989705</v>
+        <v>1363741</v>
       </c>
       <c r="AR49" s="13" t="n">
-        <v>1363741</v>
+        <v>1108288</v>
       </c>
       <c r="AS49" s="13" t="n">
-        <v>1108288</v>
+        <v>1445092</v>
       </c>
       <c r="AT49" s="13" t="n">
-        <v>1445092</v>
+        <v>1434935</v>
       </c>
       <c r="AU49" s="13" t="s">
         <v>57</v>
       </c>
       <c r="AV49" s="13" t="n">
-        <v>1434935</v>
+        <v>1255090</v>
       </c>
       <c r="AW49" s="13" t="n">
-        <v>1255090</v>
+        <v>701373</v>
       </c>
       <c r="AX49" s="13" t="n">
-        <v>701373</v>
+        <v>1307002</v>
       </c>
       <c r="AY49" s="13" t="n">
-        <v>1307002</v>
+        <v>814669</v>
       </c>
       <c r="AZ49" s="13" t="n">
-        <v>814669</v>
+        <v>838531</v>
       </c>
       <c r="BA49" s="13" t="n">
-        <v>838531</v>
+        <v>873688</v>
       </c>
       <c r="BB49" s="13" t="n">
-        <v>873688</v>
+        <v>633358</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8174,17 +8174,17 @@
       <c r="AN50" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AO50" s="16" t="s">
-        <v>57</v>
+      <c r="AO50" s="16" t="n">
+        <v>196456</v>
       </c>
       <c r="AP50" s="16" t="n">
-        <v>196456</v>
-      </c>
-      <c r="AQ50" s="16" t="n">
         <v>108065</v>
       </c>
-      <c r="AR50" s="16" t="s">
-        <v>57</v>
+      <c r="AQ50" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR50" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AS50" s="16" t="n">
         <v>0</v>
@@ -8204,8 +8204,8 @@
       <c r="AX50" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AY50" s="16" t="n">
-        <v>0</v>
+      <c r="AY50" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AZ50" s="16" t="s">
         <v>57</v>
@@ -8363,17 +8363,17 @@
       <c r="AX51" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AY51" s="13" t="s">
-        <v>57</v>
+      <c r="AY51" s="13" t="n">
+        <v>106207</v>
       </c>
       <c r="AZ51" s="13" t="n">
-        <v>106207</v>
+        <v>173780</v>
       </c>
       <c r="BA51" s="13" t="n">
-        <v>173780</v>
+        <v>111262</v>
       </c>
       <c r="BB51" s="13" t="n">
-        <v>111262</v>
+        <v>114707</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8522,17 +8522,17 @@
       <c r="AX52" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AY52" s="16" t="s">
-        <v>57</v>
+      <c r="AY52" s="16" t="n">
+        <v>61002</v>
       </c>
       <c r="AZ52" s="16" t="n">
-        <v>61002</v>
+        <v>72713</v>
       </c>
       <c r="BA52" s="16" t="n">
-        <v>72713</v>
+        <v>89688</v>
       </c>
       <c r="BB52" s="16" t="n">
-        <v>89688</v>
+        <v>32572</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8681,17 +8681,17 @@
       <c r="AX53" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AY53" s="13" t="s">
-        <v>57</v>
+      <c r="AY53" s="13" t="n">
+        <v>33840</v>
       </c>
       <c r="AZ53" s="13" t="n">
-        <v>33840</v>
+        <v>44310</v>
       </c>
       <c r="BA53" s="13" t="n">
-        <v>44310</v>
+        <v>46150</v>
       </c>
       <c r="BB53" s="13" t="n">
-        <v>46150</v>
+        <v>36063</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8825,8 +8825,8 @@
       <c r="Z55" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="AA55" s="20" t="s">
-        <v>57</v>
+      <c r="AA55" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="AB55" s="23" t="n">
         <v>0</v>
@@ -9041,44 +9041,44 @@
       <c r="Z57" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AA57" s="13" t="s">
-        <v>57</v>
+      <c r="AA57" s="13" t="n">
+        <v>-8958</v>
       </c>
       <c r="AB57" s="13" t="n">
-        <v>-8958</v>
+        <v>-17237</v>
       </c>
       <c r="AC57" s="13" t="n">
-        <v>-17237</v>
+        <v>-21520</v>
       </c>
       <c r="AD57" s="13" t="n">
-        <v>-21520</v>
+        <v>-5972</v>
       </c>
       <c r="AE57" s="13" t="n">
-        <v>-5972</v>
+        <v>-26762</v>
       </c>
       <c r="AF57" s="13" t="n">
-        <v>-26762</v>
+        <v>-8652</v>
       </c>
       <c r="AG57" s="13" t="n">
-        <v>-8652</v>
+        <v>-4255</v>
       </c>
       <c r="AH57" s="13" t="n">
-        <v>-4255</v>
+        <v>-11721</v>
       </c>
       <c r="AI57" s="13" t="n">
-        <v>-11721</v>
+        <v>-6256</v>
       </c>
       <c r="AJ57" s="13" t="n">
-        <v>-6256</v>
+        <v>-46786</v>
       </c>
       <c r="AK57" s="13" t="n">
-        <v>-46786</v>
+        <v>-18062</v>
       </c>
       <c r="AL57" s="13" t="n">
-        <v>-18062</v>
-      </c>
-      <c r="AM57" s="13" t="n">
         <v>-25646</v>
+      </c>
+      <c r="AM57" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN57" s="13" t="s">
         <v>57</v>
@@ -9236,53 +9236,53 @@
       <c r="AL58" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AM58" s="16" t="s">
-        <v>57</v>
+      <c r="AM58" s="16" t="n">
+        <v>-11135</v>
       </c>
       <c r="AN58" s="16" t="n">
-        <v>-11135</v>
+        <v>-20214</v>
       </c>
       <c r="AO58" s="16" t="n">
-        <v>-20214</v>
+        <v>-8563</v>
       </c>
       <c r="AP58" s="16" t="n">
-        <v>-8563</v>
+        <v>-19667</v>
       </c>
       <c r="AQ58" s="16" t="n">
-        <v>-19667</v>
+        <v>-16756</v>
       </c>
       <c r="AR58" s="16" t="n">
-        <v>-16756</v>
+        <v>-12069</v>
       </c>
       <c r="AS58" s="16" t="n">
-        <v>-12069</v>
+        <v>-20516</v>
       </c>
       <c r="AT58" s="16" t="n">
-        <v>-20516</v>
+        <v>-8303</v>
       </c>
       <c r="AU58" s="16" t="s">
         <v>57</v>
       </c>
       <c r="AV58" s="16" t="n">
-        <v>-8303</v>
+        <v>-13644</v>
       </c>
       <c r="AW58" s="16" t="n">
-        <v>-13644</v>
+        <v>-99147</v>
       </c>
       <c r="AX58" s="16" t="n">
-        <v>-99147</v>
+        <v>-77235</v>
       </c>
       <c r="AY58" s="16" t="n">
-        <v>-77235</v>
+        <v>-128272</v>
       </c>
       <c r="AZ58" s="16" t="n">
-        <v>-128272</v>
+        <v>-139313</v>
       </c>
       <c r="BA58" s="16" t="n">
-        <v>-139313</v>
+        <v>-99587</v>
       </c>
       <c r="BB58" s="16" t="n">
-        <v>-99587</v>
+        <v>-38900</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9359,89 +9359,89 @@
       <c r="Z59" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="AA59" s="20" t="s">
-        <v>57</v>
+      <c r="AA59" s="23" t="n">
+        <v>-8958</v>
       </c>
       <c r="AB59" s="23" t="n">
-        <v>-8958</v>
+        <v>-17237</v>
       </c>
       <c r="AC59" s="23" t="n">
-        <v>-17237</v>
+        <v>-21520</v>
       </c>
       <c r="AD59" s="23" t="n">
-        <v>-21520</v>
+        <v>-5972</v>
       </c>
       <c r="AE59" s="23" t="n">
-        <v>-5972</v>
+        <v>-26762</v>
       </c>
       <c r="AF59" s="23" t="n">
-        <v>-26762</v>
+        <v>-8652</v>
       </c>
       <c r="AG59" s="23" t="n">
-        <v>-8652</v>
+        <v>-4255</v>
       </c>
       <c r="AH59" s="23" t="n">
-        <v>-4255</v>
+        <v>-11721</v>
       </c>
       <c r="AI59" s="23" t="n">
-        <v>-11721</v>
+        <v>-6256</v>
       </c>
       <c r="AJ59" s="23" t="n">
-        <v>-6256</v>
+        <v>-46786</v>
       </c>
       <c r="AK59" s="23" t="n">
-        <v>-46786</v>
+        <v>-18062</v>
       </c>
       <c r="AL59" s="23" t="n">
-        <v>-18062</v>
+        <v>-25646</v>
       </c>
       <c r="AM59" s="23" t="n">
-        <v>-25646</v>
+        <v>-11135</v>
       </c>
       <c r="AN59" s="23" t="n">
-        <v>-11135</v>
+        <v>-20214</v>
       </c>
       <c r="AO59" s="23" t="n">
-        <v>-20214</v>
+        <v>-8563</v>
       </c>
       <c r="AP59" s="23" t="n">
-        <v>-8563</v>
+        <v>-19667</v>
       </c>
       <c r="AQ59" s="23" t="n">
-        <v>-19667</v>
+        <v>-16756</v>
       </c>
       <c r="AR59" s="23" t="n">
-        <v>-16756</v>
+        <v>-12069</v>
       </c>
       <c r="AS59" s="23" t="n">
-        <v>-12069</v>
+        <v>-20516</v>
       </c>
       <c r="AT59" s="23" t="n">
-        <v>-20516</v>
+        <v>-8303</v>
       </c>
       <c r="AU59" s="20" t="s">
         <v>57</v>
       </c>
       <c r="AV59" s="23" t="n">
-        <v>-8303</v>
+        <v>-13644</v>
       </c>
       <c r="AW59" s="23" t="n">
-        <v>-13644</v>
+        <v>-99147</v>
       </c>
       <c r="AX59" s="23" t="n">
-        <v>-99147</v>
+        <v>-77235</v>
       </c>
       <c r="AY59" s="23" t="n">
-        <v>-77235</v>
+        <v>-128272</v>
       </c>
       <c r="AZ59" s="23" t="n">
-        <v>-128272</v>
+        <v>-139313</v>
       </c>
       <c r="BA59" s="23" t="n">
-        <v>-139313</v>
+        <v>-99587</v>
       </c>
       <c r="BB59" s="23" t="n">
-        <v>-99587</v>
+        <v>-38900</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9575,89 +9575,89 @@
       <c r="Z61" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AA61" s="13" t="s">
-        <v>57</v>
+      <c r="AA61" s="13" t="n">
+        <v>-72004</v>
       </c>
       <c r="AB61" s="13" t="n">
-        <v>-72004</v>
+        <v>-31609</v>
       </c>
       <c r="AC61" s="13" t="n">
-        <v>-31609</v>
+        <v>-65563</v>
       </c>
       <c r="AD61" s="13" t="n">
-        <v>-65563</v>
+        <v>-6327</v>
       </c>
       <c r="AE61" s="13" t="n">
-        <v>-6327</v>
+        <v>-50592</v>
       </c>
       <c r="AF61" s="13" t="n">
-        <v>-50592</v>
+        <v>-33987</v>
       </c>
       <c r="AG61" s="13" t="n">
-        <v>-33987</v>
+        <v>-17116</v>
       </c>
       <c r="AH61" s="13" t="n">
-        <v>-17116</v>
+        <v>-15914</v>
       </c>
       <c r="AI61" s="13" t="n">
-        <v>-15914</v>
+        <v>-24884</v>
       </c>
       <c r="AJ61" s="13" t="n">
-        <v>-24884</v>
+        <v>-26636</v>
       </c>
       <c r="AK61" s="13" t="n">
-        <v>-26636</v>
+        <v>-41158</v>
       </c>
       <c r="AL61" s="13" t="n">
-        <v>-41158</v>
+        <v>-49124</v>
       </c>
       <c r="AM61" s="13" t="n">
-        <v>-49124</v>
+        <v>-44815</v>
       </c>
       <c r="AN61" s="13" t="n">
-        <v>-44815</v>
+        <v>-6319</v>
       </c>
       <c r="AO61" s="13" t="n">
-        <v>-6319</v>
+        <v>-9993</v>
       </c>
       <c r="AP61" s="13" t="n">
-        <v>-9993</v>
+        <v>-19062</v>
       </c>
       <c r="AQ61" s="13" t="n">
-        <v>-19062</v>
+        <v>-25829</v>
       </c>
       <c r="AR61" s="13" t="n">
-        <v>-25829</v>
+        <v>-22942</v>
       </c>
       <c r="AS61" s="13" t="n">
-        <v>-22942</v>
+        <v>-31897</v>
       </c>
       <c r="AT61" s="13" t="n">
-        <v>-31897</v>
+        <v>-25389</v>
       </c>
       <c r="AU61" s="13" t="s">
         <v>57</v>
       </c>
       <c r="AV61" s="13" t="n">
-        <v>-25389</v>
+        <v>-30640</v>
       </c>
       <c r="AW61" s="13" t="n">
-        <v>-30640</v>
+        <v>-12646</v>
       </c>
       <c r="AX61" s="13" t="n">
-        <v>-12646</v>
+        <v>-26022</v>
       </c>
       <c r="AY61" s="13" t="n">
-        <v>-26022</v>
+        <v>-24120</v>
       </c>
       <c r="AZ61" s="13" t="n">
-        <v>-24120</v>
+        <v>-22557</v>
       </c>
       <c r="BA61" s="13" t="n">
-        <v>-22557</v>
+        <v>-24119</v>
       </c>
       <c r="BB61" s="13" t="n">
-        <v>-24119</v>
+        <v>-23948</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9667,154 +9667,154 @@
       <c r="C62" s="22"/>
       <c r="D62" s="22"/>
       <c r="E62" s="22" t="n">
-        <v>216505</v>
+        <v>290877</v>
       </c>
       <c r="F62" s="22" t="n">
-        <v>290877</v>
+        <v>83909</v>
       </c>
       <c r="G62" s="22" t="n">
-        <v>83909</v>
+        <v>318919</v>
       </c>
       <c r="H62" s="22" t="n">
-        <v>318919</v>
+        <v>166916</v>
       </c>
       <c r="I62" s="22" t="n">
-        <v>166916</v>
+        <v>205591</v>
       </c>
       <c r="J62" s="22" t="n">
-        <v>205591</v>
+        <v>303961</v>
       </c>
       <c r="K62" s="22" t="n">
-        <v>303961</v>
+        <v>301594</v>
       </c>
       <c r="L62" s="22" t="n">
-        <v>301594</v>
+        <v>353297</v>
       </c>
       <c r="M62" s="22" t="n">
-        <v>353297</v>
+        <v>434018</v>
       </c>
       <c r="N62" s="22" t="n">
-        <v>434018</v>
+        <v>473562</v>
       </c>
       <c r="O62" s="22" t="n">
-        <v>473562</v>
+        <v>320629</v>
       </c>
       <c r="P62" s="22" t="n">
-        <v>320629</v>
+        <v>407959</v>
       </c>
       <c r="Q62" s="22" t="n">
-        <v>407959</v>
+        <v>494434</v>
       </c>
       <c r="R62" s="22" t="n">
-        <v>494434</v>
+        <v>132840</v>
       </c>
       <c r="S62" s="22" t="n">
-        <v>132840</v>
+        <v>453935</v>
       </c>
       <c r="T62" s="22" t="n">
-        <v>453935</v>
+        <v>205869</v>
       </c>
       <c r="U62" s="22" t="n">
-        <v>205869</v>
+        <v>474091</v>
       </c>
       <c r="V62" s="22" t="n">
-        <v>474091</v>
+        <v>416102</v>
       </c>
       <c r="W62" s="22" t="n">
-        <v>416102</v>
+        <v>649924</v>
       </c>
       <c r="X62" s="22" t="n">
-        <v>649924</v>
+        <v>716083</v>
       </c>
       <c r="Y62" s="22" t="n">
-        <v>716083</v>
+        <v>791330</v>
       </c>
       <c r="Z62" s="22" t="n">
-        <v>791330</v>
+        <v>609930</v>
       </c>
       <c r="AA62" s="22" t="n">
-        <v>609930</v>
+        <v>552377</v>
       </c>
       <c r="AB62" s="22" t="n">
-        <v>552377</v>
+        <v>706952</v>
       </c>
       <c r="AC62" s="22" t="n">
-        <v>706952</v>
+        <v>465609</v>
       </c>
       <c r="AD62" s="22" t="n">
-        <v>465609</v>
+        <v>150097</v>
       </c>
       <c r="AE62" s="22" t="n">
-        <v>150097</v>
+        <v>315345</v>
       </c>
       <c r="AF62" s="22" t="n">
-        <v>315345</v>
+        <v>388458</v>
       </c>
       <c r="AG62" s="22" t="n">
-        <v>388458</v>
+        <v>416403</v>
       </c>
       <c r="AH62" s="22" t="n">
-        <v>416403</v>
+        <v>408971</v>
       </c>
       <c r="AI62" s="22" t="n">
-        <v>408971</v>
+        <v>575619</v>
       </c>
       <c r="AJ62" s="22" t="n">
-        <v>575619</v>
+        <v>571526</v>
       </c>
       <c r="AK62" s="22" t="n">
-        <v>571526</v>
+        <v>780426</v>
       </c>
       <c r="AL62" s="22" t="n">
-        <v>780426</v>
+        <v>807796</v>
       </c>
       <c r="AM62" s="22" t="n">
-        <v>807796</v>
+        <v>567774</v>
       </c>
       <c r="AN62" s="22" t="n">
-        <v>567774</v>
+        <v>357422</v>
       </c>
       <c r="AO62" s="22" t="n">
-        <v>357422</v>
+        <v>688142</v>
       </c>
       <c r="AP62" s="22" t="n">
-        <v>688142</v>
+        <v>1059041</v>
       </c>
       <c r="AQ62" s="22" t="n">
-        <v>1059041</v>
+        <v>1321156</v>
       </c>
       <c r="AR62" s="22" t="n">
-        <v>1321156</v>
+        <v>1073277</v>
       </c>
       <c r="AS62" s="22" t="n">
-        <v>1073277</v>
+        <v>1392679</v>
       </c>
       <c r="AT62" s="22" t="n">
-        <v>1392679</v>
+        <v>1401243</v>
       </c>
       <c r="AU62" s="22" t="n">
         <v>0</v>
       </c>
       <c r="AV62" s="22" t="n">
-        <v>1401243</v>
+        <v>1210806</v>
       </c>
       <c r="AW62" s="22" t="n">
-        <v>1210806</v>
+        <v>589580</v>
       </c>
       <c r="AX62" s="22" t="n">
-        <v>589580</v>
+        <v>1203745</v>
       </c>
       <c r="AY62" s="22" t="n">
-        <v>1203745</v>
+        <v>1051586</v>
       </c>
       <c r="AZ62" s="22" t="n">
-        <v>1051586</v>
+        <v>1178550</v>
       </c>
       <c r="BA62" s="22" t="n">
-        <v>1178550</v>
+        <v>1219284</v>
       </c>
       <c r="BB62" s="22" t="n">
-        <v>1219284</v>
+        <v>892432</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10260,109 +10260,109 @@
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="13" t="n">
-        <v>125801859</v>
+        <v>153903175</v>
       </c>
       <c r="F69" s="13" t="n">
-        <v>153903175</v>
+        <v>123759587</v>
       </c>
       <c r="G69" s="13" t="n">
-        <v>123759587</v>
+        <v>146092075</v>
       </c>
       <c r="H69" s="13" t="n">
-        <v>146092075</v>
+        <v>157765595</v>
       </c>
       <c r="I69" s="13" t="n">
-        <v>157765595</v>
+        <v>159003094</v>
       </c>
       <c r="J69" s="13" t="n">
-        <v>159003094</v>
+        <v>164927292</v>
       </c>
       <c r="K69" s="13" t="n">
-        <v>164927292</v>
+        <v>163023784</v>
       </c>
       <c r="L69" s="13" t="n">
-        <v>163023784</v>
+        <v>165867136</v>
       </c>
       <c r="M69" s="13" t="n">
-        <v>165867136</v>
+        <v>199090826</v>
       </c>
       <c r="N69" s="13" t="n">
-        <v>199090826</v>
+        <v>198725136</v>
       </c>
       <c r="O69" s="13" t="n">
-        <v>198725136</v>
+        <v>207526861</v>
       </c>
       <c r="P69" s="13" t="n">
-        <v>207526861</v>
+        <v>210179804</v>
       </c>
       <c r="Q69" s="13" t="n">
-        <v>210179804</v>
+        <v>209861630</v>
       </c>
       <c r="R69" s="13" t="n">
-        <v>209861630</v>
+        <v>185790210</v>
       </c>
       <c r="S69" s="13" t="n">
-        <v>185790210</v>
+        <v>188511213</v>
       </c>
       <c r="T69" s="13" t="n">
-        <v>188511213</v>
+        <v>198332370</v>
       </c>
       <c r="U69" s="13" t="n">
-        <v>198332370</v>
+        <v>205145392</v>
       </c>
       <c r="V69" s="13" t="n">
-        <v>205145392</v>
+        <v>197111322</v>
       </c>
       <c r="W69" s="13" t="n">
-        <v>197111322</v>
+        <v>219568919</v>
       </c>
       <c r="X69" s="13" t="n">
-        <v>219568919</v>
+        <v>231817093</v>
       </c>
       <c r="Y69" s="13" t="n">
-        <v>231817093</v>
+        <v>223350268</v>
       </c>
       <c r="Z69" s="13" t="n">
-        <v>223350268</v>
+        <v>242131798</v>
       </c>
       <c r="AA69" s="13" t="n">
-        <v>242131798</v>
+        <v>253234306</v>
       </c>
       <c r="AB69" s="13" t="n">
-        <v>253234306</v>
+        <v>269927857</v>
       </c>
       <c r="AC69" s="13" t="n">
-        <v>269927857</v>
+        <v>245750111</v>
       </c>
       <c r="AD69" s="13" t="n">
-        <v>245750111</v>
+        <v>273393939</v>
       </c>
       <c r="AE69" s="13" t="n">
-        <v>273393939</v>
+        <v>266960571</v>
       </c>
       <c r="AF69" s="13" t="n">
-        <v>266960571</v>
+        <v>283057781</v>
       </c>
       <c r="AG69" s="13" t="n">
-        <v>283057781</v>
+        <v>312472520</v>
       </c>
       <c r="AH69" s="13" t="n">
-        <v>312472520</v>
+        <v>324372957</v>
       </c>
       <c r="AI69" s="13" t="n">
-        <v>324372957</v>
+        <v>346917667</v>
       </c>
       <c r="AJ69" s="13" t="n">
-        <v>346917667</v>
+        <v>393981674</v>
       </c>
       <c r="AK69" s="13" t="n">
-        <v>393981674</v>
+        <v>391991597</v>
       </c>
       <c r="AL69" s="13" t="n">
-        <v>391991597</v>
-      </c>
-      <c r="AM69" s="13" t="n">
         <v>400984098</v>
+      </c>
+      <c r="AM69" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AN69" s="13" t="s">
         <v>57</v>
@@ -10556,17 +10556,17 @@
       <c r="AX70" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AY70" s="16" t="s">
-        <v>57</v>
+      <c r="AY70" s="16" t="n">
+        <v>905096154</v>
       </c>
       <c r="AZ70" s="16" t="n">
-        <v>905096154</v>
+        <v>879525000</v>
       </c>
       <c r="BA70" s="16" t="n">
-        <v>879525000</v>
+        <v>966095652</v>
       </c>
       <c r="BB70" s="16" t="n">
-        <v>966095652</v>
+        <v>942721088</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10679,53 +10679,53 @@
       <c r="AL71" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AM71" s="13" t="s">
-        <v>57</v>
+      <c r="AM71" s="13" t="n">
+        <v>415262317</v>
       </c>
       <c r="AN71" s="13" t="n">
-        <v>415262317</v>
+        <v>423791391</v>
       </c>
       <c r="AO71" s="13" t="n">
-        <v>423791391</v>
+        <v>499747307</v>
       </c>
       <c r="AP71" s="13" t="n">
-        <v>499747307</v>
+        <v>547100608</v>
       </c>
       <c r="AQ71" s="13" t="n">
-        <v>547100608</v>
+        <v>761016183</v>
       </c>
       <c r="AR71" s="13" t="n">
-        <v>761016183</v>
+        <v>776112045</v>
       </c>
       <c r="AS71" s="13" t="n">
-        <v>776112045</v>
+        <v>811393599</v>
       </c>
       <c r="AT71" s="13" t="n">
-        <v>811393599</v>
+        <v>803435050</v>
       </c>
       <c r="AU71" s="13" t="s">
         <v>57</v>
       </c>
       <c r="AV71" s="13" t="n">
-        <v>803435050</v>
+        <v>795367554</v>
       </c>
       <c r="AW71" s="13" t="n">
-        <v>795367554</v>
+        <v>756605178</v>
       </c>
       <c r="AX71" s="13" t="n">
-        <v>756605178</v>
+        <v>812307023</v>
       </c>
       <c r="AY71" s="13" t="n">
-        <v>812307023</v>
+        <v>832994888</v>
       </c>
       <c r="AZ71" s="13" t="n">
-        <v>832994888</v>
+        <v>806279808</v>
       </c>
       <c r="BA71" s="13" t="n">
-        <v>806279808</v>
+        <v>772491600</v>
       </c>
       <c r="BB71" s="13" t="n">
-        <v>772491600</v>
+        <v>851287634</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10844,14 +10844,14 @@
       <c r="AN72" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AO72" s="16" t="s">
-        <v>57</v>
+      <c r="AO72" s="16" t="n">
+        <v>792161290</v>
       </c>
       <c r="AP72" s="16" t="n">
-        <v>792161290</v>
-      </c>
-      <c r="AQ72" s="16" t="n">
         <v>800481481</v>
+      </c>
+      <c r="AQ72" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AR72" s="16" t="s">
         <v>57</v>
@@ -11033,17 +11033,17 @@
       <c r="AX73" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AY73" s="13" t="s">
-        <v>57</v>
+      <c r="AY73" s="13" t="n">
+        <v>842912698</v>
       </c>
       <c r="AZ73" s="13" t="n">
-        <v>842912698</v>
+        <v>831483254</v>
       </c>
       <c r="BA73" s="13" t="n">
-        <v>831483254</v>
+        <v>883031746</v>
       </c>
       <c r="BB73" s="13" t="n">
-        <v>883031746</v>
+        <v>1082141509</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11192,17 +11192,17 @@
       <c r="AX74" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AY74" s="16" t="s">
-        <v>57</v>
+      <c r="AY74" s="16" t="n">
+        <v>734963855</v>
       </c>
       <c r="AZ74" s="16" t="n">
-        <v>734963855</v>
+        <v>749618557</v>
       </c>
       <c r="BA74" s="16" t="n">
-        <v>749618557</v>
+        <v>773172414</v>
       </c>
       <c r="BB74" s="16" t="n">
-        <v>773172414</v>
+        <v>814300000</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11351,17 +11351,17 @@
       <c r="AX75" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AY75" s="13" t="s">
-        <v>57</v>
+      <c r="AY75" s="13" t="n">
+        <v>554754098</v>
       </c>
       <c r="AZ75" s="13" t="n">
-        <v>554754098</v>
+        <v>540365854</v>
       </c>
       <c r="BA75" s="13" t="n">
-        <v>540365854</v>
+        <v>485789474</v>
       </c>
       <c r="BB75" s="13" t="n">
-        <v>485789474</v>
+        <v>783978261</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/ghaza/ghevita/product/monthly.xlsx
+++ b/database/industries/ghaza/ghevita/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghevita\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\ghaza\ghevita\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E3495D-177B-4755-9BDA-889BFA87A6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBE0E4D-A37F-4DC2-A2C5-9047FB98FCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="79">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 3 منتهی به 1397/12</t>
   </si>
   <si>
     <t>ماه 4 منتهی به 1398/01</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 4 منتهی به 1402/01</t>
+  </si>
+  <si>
+    <t>ماه 5 منتهی به 1402/02</t>
   </si>
   <si>
     <t>انواع بیسکوییت</t>
@@ -1415,106 +1415,106 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>1708</v>
+        <v>842</v>
       </c>
       <c r="F11" s="11">
-        <v>842</v>
+        <v>2266</v>
       </c>
       <c r="G11" s="11">
-        <v>2266</v>
+        <v>829</v>
       </c>
       <c r="H11" s="11">
-        <v>829</v>
+        <v>1146</v>
       </c>
       <c r="I11" s="11">
-        <v>1146</v>
+        <v>1534</v>
       </c>
       <c r="J11" s="11">
-        <v>1534</v>
+        <v>1847</v>
       </c>
       <c r="K11" s="11">
-        <v>1847</v>
+        <v>2180</v>
       </c>
       <c r="L11" s="11">
-        <v>2180</v>
+        <v>2324</v>
       </c>
       <c r="M11" s="11">
-        <v>2324</v>
+        <v>2226</v>
       </c>
       <c r="N11" s="11">
-        <v>2226</v>
+        <v>1769</v>
       </c>
       <c r="O11" s="11">
-        <v>1769</v>
+        <v>1677</v>
       </c>
       <c r="P11" s="11">
-        <v>1677</v>
+        <v>1709</v>
       </c>
       <c r="Q11" s="11">
-        <v>1709</v>
+        <v>828</v>
       </c>
       <c r="R11" s="11">
-        <v>828</v>
+        <v>2040</v>
       </c>
       <c r="S11" s="11">
-        <v>2040</v>
+        <v>1231</v>
       </c>
       <c r="T11" s="11">
-        <v>1231</v>
+        <v>1843</v>
       </c>
       <c r="U11" s="11">
-        <v>1843</v>
+        <v>1983</v>
       </c>
       <c r="V11" s="11">
-        <v>1983</v>
+        <v>2115</v>
       </c>
       <c r="W11" s="11">
-        <v>2115</v>
+        <v>2914</v>
       </c>
       <c r="X11" s="11">
-        <v>2914</v>
+        <v>2944</v>
       </c>
       <c r="Y11" s="11">
-        <v>2944</v>
+        <v>2802</v>
       </c>
       <c r="Z11" s="11">
-        <v>2802</v>
+        <v>1666</v>
       </c>
       <c r="AA11" s="11">
-        <v>1666</v>
+        <v>1686</v>
       </c>
       <c r="AB11" s="11">
-        <v>1686</v>
+        <v>1881</v>
       </c>
       <c r="AC11" s="11">
-        <v>1881</v>
+        <v>644</v>
       </c>
       <c r="AD11" s="11">
-        <v>644</v>
+        <v>565</v>
       </c>
       <c r="AE11" s="11">
-        <v>565</v>
+        <v>1284</v>
       </c>
       <c r="AF11" s="11">
-        <v>1284</v>
+        <v>1452</v>
       </c>
       <c r="AG11" s="11">
-        <v>1452</v>
+        <v>1506</v>
       </c>
       <c r="AH11" s="11">
-        <v>1506</v>
+        <v>2020</v>
       </c>
       <c r="AI11" s="11">
-        <v>2020</v>
+        <v>1410</v>
       </c>
       <c r="AJ11" s="11">
-        <v>1410</v>
+        <v>1628</v>
       </c>
       <c r="AK11" s="11">
-        <v>1628</v>
-      </c>
-      <c r="AL11" s="11">
         <v>2090</v>
+      </c>
+      <c r="AL11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AM11" s="11" t="s">
         <v>57</v>
@@ -1708,20 +1708,20 @@
       <c r="AW12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AX12" s="13" t="s">
-        <v>57</v>
+      <c r="AX12" s="13">
+        <v>143</v>
       </c>
       <c r="AY12" s="13">
-        <v>143</v>
+        <v>271</v>
       </c>
       <c r="AZ12" s="13">
-        <v>271</v>
+        <v>182</v>
       </c>
       <c r="BA12" s="13">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="BB12" s="13">
-        <v>181</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1831,56 +1831,56 @@
       <c r="AK13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AL13" s="11" t="s">
-        <v>57</v>
+      <c r="AL13" s="11">
+        <v>1557</v>
       </c>
       <c r="AM13" s="11">
-        <v>1557</v>
+        <v>985</v>
       </c>
       <c r="AN13" s="11">
-        <v>985</v>
+        <v>1006</v>
       </c>
       <c r="AO13" s="11">
-        <v>1006</v>
+        <v>1457</v>
       </c>
       <c r="AP13" s="11">
-        <v>1457</v>
+        <v>1863</v>
       </c>
       <c r="AQ13" s="11">
-        <v>1863</v>
+        <v>1601</v>
       </c>
       <c r="AR13" s="11">
-        <v>1601</v>
+        <v>1442</v>
       </c>
       <c r="AS13" s="11">
-        <v>1442</v>
-      </c>
-      <c r="AT13" s="11">
         <v>2003</v>
       </c>
-      <c r="AU13" s="11" t="s">
-        <v>57</v>
+      <c r="AT13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU13" s="11">
+        <v>1836</v>
       </c>
       <c r="AV13" s="11">
-        <v>1836</v>
+        <v>1342</v>
       </c>
       <c r="AW13" s="11">
-        <v>1342</v>
+        <v>883</v>
       </c>
       <c r="AX13" s="11">
-        <v>883</v>
+        <v>745</v>
       </c>
       <c r="AY13" s="11">
-        <v>745</v>
+        <v>785</v>
       </c>
       <c r="AZ13" s="11">
-        <v>785</v>
+        <v>1040</v>
       </c>
       <c r="BA13" s="11">
-        <v>1040</v>
+        <v>714</v>
       </c>
       <c r="BB13" s="11">
-        <v>714</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1996,17 +1996,17 @@
       <c r="AM14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AN14" s="13" t="s">
-        <v>57</v>
+      <c r="AN14" s="13">
+        <v>0</v>
       </c>
       <c r="AO14" s="13">
         <v>0</v>
       </c>
-      <c r="AP14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="13" t="s">
-        <v>57</v>
+      <c r="AP14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ14" s="13">
+        <v>0</v>
       </c>
       <c r="AR14" s="13">
         <v>0</v>
@@ -2014,11 +2014,11 @@
       <c r="AS14" s="13">
         <v>0</v>
       </c>
-      <c r="AT14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU14" s="13" t="s">
-        <v>57</v>
+      <c r="AT14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU14" s="13">
+        <v>0</v>
       </c>
       <c r="AV14" s="13">
         <v>0</v>
@@ -2026,8 +2026,8 @@
       <c r="AW14" s="13">
         <v>0</v>
       </c>
-      <c r="AX14" s="13">
-        <v>0</v>
+      <c r="AX14" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AY14" s="13" t="s">
         <v>57</v>
@@ -2185,20 +2185,20 @@
       <c r="AW15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AX15" s="11" t="s">
-        <v>57</v>
+      <c r="AX15" s="11">
+        <v>129</v>
       </c>
       <c r="AY15" s="11">
-        <v>129</v>
+        <v>228</v>
       </c>
       <c r="AZ15" s="11">
-        <v>228</v>
+        <v>97</v>
       </c>
       <c r="BA15" s="11">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="BB15" s="11">
-        <v>111</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2344,20 +2344,20 @@
       <c r="AW16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AX16" s="13" t="s">
-        <v>57</v>
+      <c r="AX16" s="13">
+        <v>105</v>
       </c>
       <c r="AY16" s="13">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AZ16" s="13">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="BA16" s="13">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="BB16" s="13">
-        <v>50</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2503,20 +2503,20 @@
       <c r="AW17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AX17" s="11" t="s">
-        <v>57</v>
+      <c r="AX17" s="11">
+        <v>67</v>
       </c>
       <c r="AY17" s="11">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AZ17" s="11">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="BA17" s="11">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="BB17" s="11">
-        <v>58</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2645,8 +2645,8 @@
       <c r="Y19" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Z19" s="17" t="s">
-        <v>57</v>
+      <c r="Z19" s="17">
+        <v>0</v>
       </c>
       <c r="AA19" s="17">
         <v>0</v>
@@ -2705,11 +2705,11 @@
       <c r="AS19" s="17">
         <v>0</v>
       </c>
-      <c r="AT19" s="17">
-        <v>0</v>
-      </c>
-      <c r="AU19" s="17" t="s">
-        <v>57</v>
+      <c r="AT19" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU19" s="17">
+        <v>0</v>
       </c>
       <c r="AV19" s="17">
         <v>0</v>
@@ -2740,154 +2740,154 @@
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19">
-        <v>1708</v>
+        <v>842</v>
       </c>
       <c r="F20" s="19">
-        <v>842</v>
+        <v>2266</v>
       </c>
       <c r="G20" s="19">
-        <v>2266</v>
+        <v>829</v>
       </c>
       <c r="H20" s="19">
-        <v>829</v>
+        <v>1146</v>
       </c>
       <c r="I20" s="19">
-        <v>1146</v>
+        <v>1534</v>
       </c>
       <c r="J20" s="19">
-        <v>1534</v>
+        <v>1847</v>
       </c>
       <c r="K20" s="19">
-        <v>1847</v>
+        <v>2180</v>
       </c>
       <c r="L20" s="19">
-        <v>2180</v>
+        <v>2324</v>
       </c>
       <c r="M20" s="19">
-        <v>2324</v>
+        <v>2226</v>
       </c>
       <c r="N20" s="19">
-        <v>2226</v>
+        <v>1769</v>
       </c>
       <c r="O20" s="19">
-        <v>1769</v>
+        <v>1677</v>
       </c>
       <c r="P20" s="19">
-        <v>1677</v>
+        <v>1709</v>
       </c>
       <c r="Q20" s="19">
-        <v>1709</v>
+        <v>828</v>
       </c>
       <c r="R20" s="19">
-        <v>828</v>
+        <v>2040</v>
       </c>
       <c r="S20" s="19">
-        <v>2040</v>
+        <v>1231</v>
       </c>
       <c r="T20" s="19">
-        <v>1231</v>
+        <v>1843</v>
       </c>
       <c r="U20" s="19">
-        <v>1843</v>
+        <v>1983</v>
       </c>
       <c r="V20" s="19">
-        <v>1983</v>
+        <v>2115</v>
       </c>
       <c r="W20" s="19">
-        <v>2115</v>
+        <v>2914</v>
       </c>
       <c r="X20" s="19">
-        <v>2914</v>
+        <v>2944</v>
       </c>
       <c r="Y20" s="19">
-        <v>2944</v>
+        <v>2802</v>
       </c>
       <c r="Z20" s="19">
-        <v>2802</v>
+        <v>1666</v>
       </c>
       <c r="AA20" s="19">
-        <v>1666</v>
+        <v>1686</v>
       </c>
       <c r="AB20" s="19">
-        <v>1686</v>
+        <v>1881</v>
       </c>
       <c r="AC20" s="19">
-        <v>1881</v>
+        <v>644</v>
       </c>
       <c r="AD20" s="19">
-        <v>644</v>
+        <v>565</v>
       </c>
       <c r="AE20" s="19">
-        <v>565</v>
+        <v>1284</v>
       </c>
       <c r="AF20" s="19">
-        <v>1284</v>
+        <v>1452</v>
       </c>
       <c r="AG20" s="19">
-        <v>1452</v>
+        <v>1506</v>
       </c>
       <c r="AH20" s="19">
-        <v>1506</v>
+        <v>2020</v>
       </c>
       <c r="AI20" s="19">
-        <v>2020</v>
+        <v>1410</v>
       </c>
       <c r="AJ20" s="19">
-        <v>1410</v>
+        <v>1628</v>
       </c>
       <c r="AK20" s="19">
-        <v>1628</v>
+        <v>2090</v>
       </c>
       <c r="AL20" s="19">
-        <v>2090</v>
+        <v>1557</v>
       </c>
       <c r="AM20" s="19">
-        <v>1557</v>
+        <v>985</v>
       </c>
       <c r="AN20" s="19">
-        <v>985</v>
+        <v>1006</v>
       </c>
       <c r="AO20" s="19">
-        <v>1006</v>
+        <v>1457</v>
       </c>
       <c r="AP20" s="19">
-        <v>1457</v>
+        <v>1863</v>
       </c>
       <c r="AQ20" s="19">
-        <v>1863</v>
+        <v>1601</v>
       </c>
       <c r="AR20" s="19">
-        <v>1601</v>
+        <v>1442</v>
       </c>
       <c r="AS20" s="19">
-        <v>1442</v>
+        <v>2003</v>
       </c>
       <c r="AT20" s="19">
-        <v>2003</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="19">
-        <v>0</v>
+        <v>1836</v>
       </c>
       <c r="AV20" s="19">
-        <v>1836</v>
+        <v>1342</v>
       </c>
       <c r="AW20" s="19">
-        <v>1342</v>
+        <v>883</v>
       </c>
       <c r="AX20" s="19">
-        <v>883</v>
+        <v>1189</v>
       </c>
       <c r="AY20" s="19">
-        <v>1189</v>
+        <v>1458</v>
       </c>
       <c r="AZ20" s="19">
-        <v>1458</v>
+        <v>1522</v>
       </c>
       <c r="BA20" s="19">
-        <v>1522</v>
+        <v>1114</v>
       </c>
       <c r="BB20" s="19">
-        <v>1114</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3333,106 +3333,106 @@
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>1890</v>
+        <v>678</v>
       </c>
       <c r="F27" s="11">
-        <v>678</v>
+        <v>2183</v>
       </c>
       <c r="G27" s="11">
-        <v>2183</v>
+        <v>1058</v>
       </c>
       <c r="H27" s="11">
-        <v>1058</v>
+        <v>1293</v>
       </c>
       <c r="I27" s="11">
-        <v>1293</v>
+        <v>1843</v>
       </c>
       <c r="J27" s="11">
-        <v>1843</v>
+        <v>1850</v>
       </c>
       <c r="K27" s="11">
-        <v>1850</v>
+        <v>2130</v>
       </c>
       <c r="L27" s="11">
-        <v>2130</v>
+        <v>2180</v>
       </c>
       <c r="M27" s="11">
-        <v>2180</v>
+        <v>2383</v>
       </c>
       <c r="N27" s="11">
-        <v>2383</v>
+        <v>1545</v>
       </c>
       <c r="O27" s="11">
-        <v>1545</v>
+        <v>1941</v>
       </c>
       <c r="P27" s="11">
-        <v>1941</v>
+        <v>2356</v>
       </c>
       <c r="Q27" s="11">
-        <v>2356</v>
+        <v>715</v>
       </c>
       <c r="R27" s="11">
-        <v>715</v>
+        <v>2408</v>
       </c>
       <c r="S27" s="11">
-        <v>2408</v>
+        <v>1038</v>
       </c>
       <c r="T27" s="11">
-        <v>1038</v>
+        <v>2311</v>
       </c>
       <c r="U27" s="11">
-        <v>2311</v>
+        <v>2111</v>
       </c>
       <c r="V27" s="11">
-        <v>2111</v>
+        <v>2960</v>
       </c>
       <c r="W27" s="11">
-        <v>2960</v>
+        <v>3089</v>
       </c>
       <c r="X27" s="11">
-        <v>3089</v>
+        <v>3543</v>
       </c>
       <c r="Y27" s="11">
-        <v>3543</v>
+        <v>2519</v>
       </c>
       <c r="Z27" s="11">
-        <v>2519</v>
+        <v>2501</v>
       </c>
       <c r="AA27" s="11">
-        <v>2501</v>
+        <v>2800</v>
       </c>
       <c r="AB27" s="11">
-        <v>2800</v>
+        <v>2249</v>
       </c>
       <c r="AC27" s="11">
-        <v>2249</v>
+        <v>594</v>
       </c>
       <c r="AD27" s="11">
-        <v>594</v>
+        <v>1471</v>
       </c>
       <c r="AE27" s="11">
-        <v>1471</v>
+        <v>1523</v>
       </c>
       <c r="AF27" s="11">
-        <v>1523</v>
+        <v>1401</v>
       </c>
       <c r="AG27" s="11">
-        <v>1401</v>
+        <v>1346</v>
       </c>
       <c r="AH27" s="11">
-        <v>1346</v>
+        <v>1749</v>
       </c>
       <c r="AI27" s="11">
-        <v>1749</v>
+        <v>1637</v>
       </c>
       <c r="AJ27" s="11">
-        <v>1637</v>
+        <v>2142</v>
       </c>
       <c r="AK27" s="11">
-        <v>2142</v>
-      </c>
-      <c r="AL27" s="11">
         <v>2201</v>
+      </c>
+      <c r="AL27" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AM27" s="11" t="s">
         <v>57</v>
@@ -3626,20 +3626,20 @@
       <c r="AW28" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AX28" s="13" t="s">
-        <v>57</v>
+      <c r="AX28" s="13">
+        <v>208</v>
       </c>
       <c r="AY28" s="13">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="AZ28" s="13">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="BA28" s="13">
-        <v>230</v>
+        <v>147</v>
       </c>
       <c r="BB28" s="13">
-        <v>147</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.3">
@@ -3749,56 +3749,56 @@
       <c r="AK29" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AL29" s="11" t="s">
-        <v>57</v>
+      <c r="AL29" s="11">
+        <v>1502</v>
       </c>
       <c r="AM29" s="11">
-        <v>1502</v>
+        <v>906</v>
       </c>
       <c r="AN29" s="11">
-        <v>906</v>
+        <v>1021</v>
       </c>
       <c r="AO29" s="11">
-        <v>1021</v>
+        <v>1809</v>
       </c>
       <c r="AP29" s="11">
-        <v>1809</v>
+        <v>1792</v>
       </c>
       <c r="AQ29" s="11">
-        <v>1792</v>
+        <v>1428</v>
       </c>
       <c r="AR29" s="11">
-        <v>1428</v>
+        <v>1781</v>
       </c>
       <c r="AS29" s="11">
-        <v>1781</v>
-      </c>
-      <c r="AT29" s="11">
         <v>1786</v>
       </c>
-      <c r="AU29" s="11" t="s">
-        <v>57</v>
+      <c r="AT29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU29" s="11">
+        <v>1578</v>
       </c>
       <c r="AV29" s="11">
-        <v>1578</v>
+        <v>927</v>
       </c>
       <c r="AW29" s="11">
-        <v>927</v>
+        <v>1609</v>
       </c>
       <c r="AX29" s="11">
-        <v>1609</v>
+        <v>978</v>
       </c>
       <c r="AY29" s="11">
-        <v>978</v>
+        <v>1040</v>
       </c>
       <c r="AZ29" s="11">
-        <v>1040</v>
+        <v>1131</v>
       </c>
       <c r="BA29" s="11">
-        <v>1131</v>
+        <v>744</v>
       </c>
       <c r="BB29" s="11">
-        <v>744</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
@@ -3914,17 +3914,17 @@
       <c r="AM30" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AN30" s="13" t="s">
-        <v>57</v>
+      <c r="AN30" s="13">
+        <v>248</v>
       </c>
       <c r="AO30" s="13">
-        <v>248</v>
-      </c>
-      <c r="AP30" s="13">
         <v>135</v>
       </c>
-      <c r="AQ30" s="13" t="s">
-        <v>57</v>
+      <c r="AP30" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ30" s="13">
+        <v>0</v>
       </c>
       <c r="AR30" s="13">
         <v>0</v>
@@ -3932,11 +3932,11 @@
       <c r="AS30" s="13">
         <v>0</v>
       </c>
-      <c r="AT30" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU30" s="13" t="s">
-        <v>57</v>
+      <c r="AT30" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU30" s="13">
+        <v>0</v>
       </c>
       <c r="AV30" s="13">
         <v>0</v>
@@ -3944,8 +3944,8 @@
       <c r="AW30" s="13">
         <v>0</v>
       </c>
-      <c r="AX30" s="13">
-        <v>0</v>
+      <c r="AX30" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AY30" s="13" t="s">
         <v>57</v>
@@ -4103,20 +4103,20 @@
       <c r="AW31" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AX31" s="11" t="s">
-        <v>57</v>
+      <c r="AX31" s="11">
+        <v>126</v>
       </c>
       <c r="AY31" s="11">
+        <v>209</v>
+      </c>
+      <c r="AZ31" s="11">
         <v>126</v>
       </c>
-      <c r="AZ31" s="11">
-        <v>209</v>
-      </c>
       <c r="BA31" s="11">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="BB31" s="11">
-        <v>106</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4262,20 +4262,20 @@
       <c r="AW32" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AX32" s="13" t="s">
-        <v>57</v>
+      <c r="AX32" s="13">
+        <v>83</v>
       </c>
       <c r="AY32" s="13">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="AZ32" s="13">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="BA32" s="13">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="BB32" s="13">
-        <v>40</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.3">
@@ -4421,20 +4421,20 @@
       <c r="AW33" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AX33" s="11" t="s">
-        <v>57</v>
+      <c r="AX33" s="11">
+        <v>61</v>
       </c>
       <c r="AY33" s="11">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AZ33" s="11">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="BA33" s="11">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="BB33" s="11">
-        <v>46</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4563,8 +4563,8 @@
       <c r="Y35" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Z35" s="17" t="s">
-        <v>57</v>
+      <c r="Z35" s="17">
+        <v>0</v>
       </c>
       <c r="AA35" s="17">
         <v>0</v>
@@ -4623,11 +4623,11 @@
       <c r="AS35" s="17">
         <v>0</v>
       </c>
-      <c r="AT35" s="17">
-        <v>0</v>
-      </c>
-      <c r="AU35" s="17" t="s">
-        <v>57</v>
+      <c r="AT35" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU35" s="17">
+        <v>0</v>
       </c>
       <c r="AV35" s="17">
         <v>0</v>
@@ -4779,44 +4779,44 @@
       <c r="Y37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z37" s="11" t="s">
-        <v>57</v>
+      <c r="Z37" s="11">
+        <v>-35</v>
       </c>
       <c r="AA37" s="11">
-        <v>-35</v>
+        <v>-68</v>
       </c>
       <c r="AB37" s="11">
-        <v>-68</v>
+        <v>-78</v>
       </c>
       <c r="AC37" s="11">
-        <v>-78</v>
+        <v>-18</v>
       </c>
       <c r="AD37" s="11">
-        <v>-18</v>
+        <v>-95</v>
       </c>
       <c r="AE37" s="11">
-        <v>-95</v>
+        <v>-32</v>
       </c>
       <c r="AF37" s="11">
-        <v>-32</v>
+        <v>-15</v>
       </c>
       <c r="AG37" s="11">
-        <v>-15</v>
+        <v>-37</v>
       </c>
       <c r="AH37" s="11">
-        <v>-37</v>
+        <v>-19</v>
       </c>
       <c r="AI37" s="11">
-        <v>-19</v>
+        <v>-185</v>
       </c>
       <c r="AJ37" s="11">
-        <v>-185</v>
+        <v>-43</v>
       </c>
       <c r="AK37" s="11">
-        <v>-43</v>
-      </c>
-      <c r="AL37" s="11">
         <v>-71</v>
+      </c>
+      <c r="AL37" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AM37" s="11" t="s">
         <v>57</v>
@@ -4974,56 +4974,56 @@
       <c r="AK38" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AL38" s="13" t="s">
-        <v>57</v>
+      <c r="AL38" s="13">
+        <v>-31</v>
       </c>
       <c r="AM38" s="13">
-        <v>-31</v>
+        <v>-43</v>
       </c>
       <c r="AN38" s="13">
-        <v>-43</v>
+        <v>-16</v>
       </c>
       <c r="AO38" s="13">
+        <v>-35</v>
+      </c>
+      <c r="AP38" s="13">
+        <v>-23</v>
+      </c>
+      <c r="AQ38" s="13">
+        <v>-15</v>
+      </c>
+      <c r="AR38" s="13">
+        <v>-24</v>
+      </c>
+      <c r="AS38" s="13">
+        <v>-8</v>
+      </c>
+      <c r="AT38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU38" s="13">
         <v>-16</v>
       </c>
-      <c r="AP38" s="13">
-        <v>-35</v>
-      </c>
-      <c r="AQ38" s="13">
-        <v>-23</v>
-      </c>
-      <c r="AR38" s="13">
-        <v>-15</v>
-      </c>
-      <c r="AS38" s="13">
-        <v>-24</v>
-      </c>
-      <c r="AT38" s="13">
-        <v>-8</v>
-      </c>
-      <c r="AU38" s="13" t="s">
-        <v>57</v>
-      </c>
       <c r="AV38" s="13">
-        <v>-16</v>
+        <v>-112</v>
       </c>
       <c r="AW38" s="13">
-        <v>-112</v>
+        <v>-99</v>
       </c>
       <c r="AX38" s="13">
-        <v>-99</v>
+        <v>-144</v>
       </c>
       <c r="AY38" s="13">
-        <v>-144</v>
+        <v>-163</v>
       </c>
       <c r="AZ38" s="13">
-        <v>-163</v>
+        <v>-120</v>
       </c>
       <c r="BA38" s="13">
-        <v>-120</v>
+        <v>-65</v>
       </c>
       <c r="BB38" s="13">
-        <v>-65</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5095,92 +5095,92 @@
       <c r="Y39" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Z39" s="17" t="s">
-        <v>57</v>
+      <c r="Z39" s="17">
+        <v>-35</v>
       </c>
       <c r="AA39" s="17">
+        <v>-68</v>
+      </c>
+      <c r="AB39" s="17">
+        <v>-78</v>
+      </c>
+      <c r="AC39" s="17">
+        <v>-18</v>
+      </c>
+      <c r="AD39" s="17">
+        <v>-95</v>
+      </c>
+      <c r="AE39" s="17">
+        <v>-32</v>
+      </c>
+      <c r="AF39" s="17">
+        <v>-15</v>
+      </c>
+      <c r="AG39" s="17">
+        <v>-37</v>
+      </c>
+      <c r="AH39" s="17">
+        <v>-19</v>
+      </c>
+      <c r="AI39" s="17">
+        <v>-185</v>
+      </c>
+      <c r="AJ39" s="17">
+        <v>-43</v>
+      </c>
+      <c r="AK39" s="17">
+        <v>-71</v>
+      </c>
+      <c r="AL39" s="17">
+        <v>-31</v>
+      </c>
+      <c r="AM39" s="17">
+        <v>-43</v>
+      </c>
+      <c r="AN39" s="17">
+        <v>-16</v>
+      </c>
+      <c r="AO39" s="17">
         <v>-35</v>
       </c>
-      <c r="AB39" s="17">
-        <v>-68</v>
-      </c>
-      <c r="AC39" s="17">
-        <v>-78</v>
-      </c>
-      <c r="AD39" s="17">
-        <v>-18</v>
-      </c>
-      <c r="AE39" s="17">
-        <v>-95</v>
-      </c>
-      <c r="AF39" s="17">
-        <v>-32</v>
-      </c>
-      <c r="AG39" s="17">
+      <c r="AP39" s="17">
+        <v>-23</v>
+      </c>
+      <c r="AQ39" s="17">
         <v>-15</v>
       </c>
-      <c r="AH39" s="17">
-        <v>-37</v>
-      </c>
-      <c r="AI39" s="17">
+      <c r="AR39" s="17">
+        <v>-24</v>
+      </c>
+      <c r="AS39" s="17">
+        <v>-8</v>
+      </c>
+      <c r="AT39" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU39" s="17">
+        <v>-16</v>
+      </c>
+      <c r="AV39" s="17">
+        <v>-112</v>
+      </c>
+      <c r="AW39" s="17">
+        <v>-99</v>
+      </c>
+      <c r="AX39" s="17">
+        <v>-144</v>
+      </c>
+      <c r="AY39" s="17">
+        <v>-163</v>
+      </c>
+      <c r="AZ39" s="17">
+        <v>-120</v>
+      </c>
+      <c r="BA39" s="17">
+        <v>-65</v>
+      </c>
+      <c r="BB39" s="17">
         <v>-19</v>
-      </c>
-      <c r="AJ39" s="17">
-        <v>-185</v>
-      </c>
-      <c r="AK39" s="17">
-        <v>-43</v>
-      </c>
-      <c r="AL39" s="17">
-        <v>-71</v>
-      </c>
-      <c r="AM39" s="17">
-        <v>-31</v>
-      </c>
-      <c r="AN39" s="17">
-        <v>-43</v>
-      </c>
-      <c r="AO39" s="17">
-        <v>-16</v>
-      </c>
-      <c r="AP39" s="17">
-        <v>-35</v>
-      </c>
-      <c r="AQ39" s="17">
-        <v>-23</v>
-      </c>
-      <c r="AR39" s="17">
-        <v>-15</v>
-      </c>
-      <c r="AS39" s="17">
-        <v>-24</v>
-      </c>
-      <c r="AT39" s="17">
-        <v>-8</v>
-      </c>
-      <c r="AU39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV39" s="17">
-        <v>-16</v>
-      </c>
-      <c r="AW39" s="17">
-        <v>-112</v>
-      </c>
-      <c r="AX39" s="17">
-        <v>-99</v>
-      </c>
-      <c r="AY39" s="17">
-        <v>-144</v>
-      </c>
-      <c r="AZ39" s="17">
-        <v>-163</v>
-      </c>
-      <c r="BA39" s="17">
-        <v>-120</v>
-      </c>
-      <c r="BB39" s="17">
-        <v>-65</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5190,154 +5190,154 @@
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19">
-        <v>1890</v>
+        <v>678</v>
       </c>
       <c r="F40" s="19">
-        <v>678</v>
+        <v>2183</v>
       </c>
       <c r="G40" s="19">
-        <v>2183</v>
+        <v>1058</v>
       </c>
       <c r="H40" s="19">
-        <v>1058</v>
+        <v>1293</v>
       </c>
       <c r="I40" s="19">
-        <v>1293</v>
+        <v>1843</v>
       </c>
       <c r="J40" s="19">
-        <v>1843</v>
+        <v>1850</v>
       </c>
       <c r="K40" s="19">
-        <v>1850</v>
+        <v>2130</v>
       </c>
       <c r="L40" s="19">
+        <v>2180</v>
+      </c>
+      <c r="M40" s="19">
+        <v>2383</v>
+      </c>
+      <c r="N40" s="19">
+        <v>1545</v>
+      </c>
+      <c r="O40" s="19">
+        <v>1941</v>
+      </c>
+      <c r="P40" s="19">
+        <v>2356</v>
+      </c>
+      <c r="Q40" s="19">
+        <v>715</v>
+      </c>
+      <c r="R40" s="19">
+        <v>2408</v>
+      </c>
+      <c r="S40" s="19">
+        <v>1038</v>
+      </c>
+      <c r="T40" s="19">
+        <v>2311</v>
+      </c>
+      <c r="U40" s="19">
+        <v>2111</v>
+      </c>
+      <c r="V40" s="19">
+        <v>2960</v>
+      </c>
+      <c r="W40" s="19">
+        <v>3089</v>
+      </c>
+      <c r="X40" s="19">
+        <v>3543</v>
+      </c>
+      <c r="Y40" s="19">
+        <v>2519</v>
+      </c>
+      <c r="Z40" s="19">
+        <v>2466</v>
+      </c>
+      <c r="AA40" s="19">
+        <v>2732</v>
+      </c>
+      <c r="AB40" s="19">
+        <v>2171</v>
+      </c>
+      <c r="AC40" s="19">
+        <v>576</v>
+      </c>
+      <c r="AD40" s="19">
+        <v>1376</v>
+      </c>
+      <c r="AE40" s="19">
+        <v>1491</v>
+      </c>
+      <c r="AF40" s="19">
+        <v>1386</v>
+      </c>
+      <c r="AG40" s="19">
+        <v>1309</v>
+      </c>
+      <c r="AH40" s="19">
+        <v>1730</v>
+      </c>
+      <c r="AI40" s="19">
+        <v>1452</v>
+      </c>
+      <c r="AJ40" s="19">
+        <v>2099</v>
+      </c>
+      <c r="AK40" s="19">
         <v>2130</v>
       </c>
-      <c r="M40" s="19">
-        <v>2180</v>
-      </c>
-      <c r="N40" s="19">
-        <v>2383</v>
-      </c>
-      <c r="O40" s="19">
-        <v>1545</v>
-      </c>
-      <c r="P40" s="19">
-        <v>1941</v>
-      </c>
-      <c r="Q40" s="19">
-        <v>2356</v>
-      </c>
-      <c r="R40" s="19">
-        <v>715</v>
-      </c>
-      <c r="S40" s="19">
-        <v>2408</v>
-      </c>
-      <c r="T40" s="19">
-        <v>1038</v>
-      </c>
-      <c r="U40" s="19">
-        <v>2311</v>
-      </c>
-      <c r="V40" s="19">
-        <v>2111</v>
-      </c>
-      <c r="W40" s="19">
-        <v>2960</v>
-      </c>
-      <c r="X40" s="19">
-        <v>3089</v>
-      </c>
-      <c r="Y40" s="19">
-        <v>3543</v>
-      </c>
-      <c r="Z40" s="19">
-        <v>2519</v>
-      </c>
-      <c r="AA40" s="19">
-        <v>2466</v>
-      </c>
-      <c r="AB40" s="19">
-        <v>2732</v>
-      </c>
-      <c r="AC40" s="19">
-        <v>2171</v>
-      </c>
-      <c r="AD40" s="19">
-        <v>576</v>
-      </c>
-      <c r="AE40" s="19">
-        <v>1376</v>
-      </c>
-      <c r="AF40" s="19">
-        <v>1491</v>
-      </c>
-      <c r="AG40" s="19">
-        <v>1386</v>
-      </c>
-      <c r="AH40" s="19">
-        <v>1309</v>
-      </c>
-      <c r="AI40" s="19">
-        <v>1730</v>
-      </c>
-      <c r="AJ40" s="19">
-        <v>1452</v>
-      </c>
-      <c r="AK40" s="19">
-        <v>2099</v>
-      </c>
       <c r="AL40" s="19">
-        <v>2130</v>
+        <v>1471</v>
       </c>
       <c r="AM40" s="19">
-        <v>1471</v>
+        <v>863</v>
       </c>
       <c r="AN40" s="19">
-        <v>863</v>
+        <v>1253</v>
       </c>
       <c r="AO40" s="19">
-        <v>1253</v>
+        <v>1909</v>
       </c>
       <c r="AP40" s="19">
-        <v>1909</v>
+        <v>1769</v>
       </c>
       <c r="AQ40" s="19">
-        <v>1769</v>
+        <v>1413</v>
       </c>
       <c r="AR40" s="19">
-        <v>1413</v>
+        <v>1757</v>
       </c>
       <c r="AS40" s="19">
-        <v>1757</v>
+        <v>1778</v>
       </c>
       <c r="AT40" s="19">
-        <v>1778</v>
+        <v>0</v>
       </c>
       <c r="AU40" s="19">
-        <v>0</v>
+        <v>1562</v>
       </c>
       <c r="AV40" s="19">
-        <v>1562</v>
+        <v>815</v>
       </c>
       <c r="AW40" s="19">
-        <v>815</v>
+        <v>1510</v>
       </c>
       <c r="AX40" s="19">
-        <v>1510</v>
+        <v>1312</v>
       </c>
       <c r="AY40" s="19">
-        <v>1312</v>
+        <v>1505</v>
       </c>
       <c r="AZ40" s="19">
-        <v>1505</v>
+        <v>1578</v>
       </c>
       <c r="BA40" s="19">
-        <v>1578</v>
+        <v>1018</v>
       </c>
       <c r="BB40" s="19">
-        <v>1018</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5783,106 +5783,106 @@
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
-        <v>290877</v>
+        <v>83909</v>
       </c>
       <c r="F47" s="11">
-        <v>83909</v>
+        <v>318919</v>
       </c>
       <c r="G47" s="11">
-        <v>318919</v>
+        <v>166916</v>
       </c>
       <c r="H47" s="11">
-        <v>166916</v>
+        <v>205591</v>
       </c>
       <c r="I47" s="11">
-        <v>205591</v>
+        <v>303961</v>
       </c>
       <c r="J47" s="11">
-        <v>303961</v>
+        <v>301594</v>
       </c>
       <c r="K47" s="11">
-        <v>301594</v>
+        <v>353297</v>
       </c>
       <c r="L47" s="11">
-        <v>353297</v>
+        <v>434018</v>
       </c>
       <c r="M47" s="11">
-        <v>434018</v>
+        <v>473562</v>
       </c>
       <c r="N47" s="11">
-        <v>473562</v>
+        <v>320629</v>
       </c>
       <c r="O47" s="11">
-        <v>320629</v>
+        <v>407959</v>
       </c>
       <c r="P47" s="11">
-        <v>407959</v>
+        <v>494434</v>
       </c>
       <c r="Q47" s="11">
-        <v>494434</v>
+        <v>132840</v>
       </c>
       <c r="R47" s="11">
-        <v>132840</v>
+        <v>453935</v>
       </c>
       <c r="S47" s="11">
-        <v>453935</v>
+        <v>205869</v>
       </c>
       <c r="T47" s="11">
-        <v>205869</v>
+        <v>474091</v>
       </c>
       <c r="U47" s="11">
-        <v>474091</v>
+        <v>416102</v>
       </c>
       <c r="V47" s="11">
-        <v>416102</v>
+        <v>649924</v>
       </c>
       <c r="W47" s="11">
-        <v>649924</v>
+        <v>716083</v>
       </c>
       <c r="X47" s="11">
-        <v>716083</v>
+        <v>791330</v>
       </c>
       <c r="Y47" s="11">
-        <v>791330</v>
+        <v>609930</v>
       </c>
       <c r="Z47" s="11">
-        <v>609930</v>
+        <v>633339</v>
       </c>
       <c r="AA47" s="11">
-        <v>633339</v>
+        <v>755798</v>
       </c>
       <c r="AB47" s="11">
-        <v>755798</v>
+        <v>552692</v>
       </c>
       <c r="AC47" s="11">
-        <v>552692</v>
+        <v>162396</v>
       </c>
       <c r="AD47" s="11">
-        <v>162396</v>
+        <v>392699</v>
       </c>
       <c r="AE47" s="11">
-        <v>392699</v>
+        <v>431097</v>
       </c>
       <c r="AF47" s="11">
-        <v>431097</v>
+        <v>437774</v>
       </c>
       <c r="AG47" s="11">
-        <v>437774</v>
+        <v>436606</v>
       </c>
       <c r="AH47" s="11">
-        <v>436606</v>
+        <v>606759</v>
       </c>
       <c r="AI47" s="11">
-        <v>606759</v>
+        <v>644948</v>
       </c>
       <c r="AJ47" s="11">
-        <v>644948</v>
+        <v>839646</v>
       </c>
       <c r="AK47" s="11">
-        <v>839646</v>
-      </c>
-      <c r="AL47" s="11">
         <v>882566</v>
+      </c>
+      <c r="AL47" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AM47" s="11" t="s">
         <v>57</v>
@@ -6076,20 +6076,20 @@
       <c r="AW48" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AX48" s="13" t="s">
-        <v>57</v>
+      <c r="AX48" s="13">
+        <v>188260</v>
       </c>
       <c r="AY48" s="13">
-        <v>188260</v>
+        <v>211086</v>
       </c>
       <c r="AZ48" s="13">
-        <v>211086</v>
+        <v>222202</v>
       </c>
       <c r="BA48" s="13">
-        <v>222202</v>
+        <v>138580</v>
       </c>
       <c r="BB48" s="13">
-        <v>138580</v>
+        <v>268016</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -6199,56 +6199,56 @@
       <c r="AK49" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AL49" s="11" t="s">
-        <v>57</v>
+      <c r="AL49" s="11">
+        <v>623724</v>
       </c>
       <c r="AM49" s="11">
-        <v>623724</v>
+        <v>383955</v>
       </c>
       <c r="AN49" s="11">
-        <v>383955</v>
+        <v>510242</v>
       </c>
       <c r="AO49" s="11">
-        <v>510242</v>
+        <v>989705</v>
       </c>
       <c r="AP49" s="11">
-        <v>989705</v>
+        <v>1363741</v>
       </c>
       <c r="AQ49" s="11">
-        <v>1363741</v>
+        <v>1108288</v>
       </c>
       <c r="AR49" s="11">
-        <v>1108288</v>
+        <v>1445092</v>
       </c>
       <c r="AS49" s="11">
-        <v>1445092</v>
-      </c>
-      <c r="AT49" s="11">
         <v>1434935</v>
       </c>
-      <c r="AU49" s="11" t="s">
-        <v>57</v>
+      <c r="AT49" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU49" s="11">
+        <v>1255090</v>
       </c>
       <c r="AV49" s="11">
-        <v>1255090</v>
+        <v>701373</v>
       </c>
       <c r="AW49" s="11">
-        <v>701373</v>
+        <v>1307002</v>
       </c>
       <c r="AX49" s="11">
-        <v>1307002</v>
+        <v>814669</v>
       </c>
       <c r="AY49" s="11">
-        <v>814669</v>
+        <v>838531</v>
       </c>
       <c r="AZ49" s="11">
-        <v>838531</v>
+        <v>873688</v>
       </c>
       <c r="BA49" s="11">
-        <v>873688</v>
+        <v>633358</v>
       </c>
       <c r="BB49" s="11">
-        <v>633358</v>
+        <v>1145395</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
@@ -6364,17 +6364,17 @@
       <c r="AM50" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AN50" s="13" t="s">
-        <v>57</v>
+      <c r="AN50" s="13">
+        <v>196456</v>
       </c>
       <c r="AO50" s="13">
-        <v>196456</v>
-      </c>
-      <c r="AP50" s="13">
         <v>108065</v>
       </c>
-      <c r="AQ50" s="13" t="s">
-        <v>57</v>
+      <c r="AP50" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ50" s="13">
+        <v>0</v>
       </c>
       <c r="AR50" s="13">
         <v>0</v>
@@ -6382,11 +6382,11 @@
       <c r="AS50" s="13">
         <v>0</v>
       </c>
-      <c r="AT50" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU50" s="13" t="s">
-        <v>57</v>
+      <c r="AT50" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU50" s="13">
+        <v>0</v>
       </c>
       <c r="AV50" s="13">
         <v>0</v>
@@ -6394,8 +6394,8 @@
       <c r="AW50" s="13">
         <v>0</v>
       </c>
-      <c r="AX50" s="13">
-        <v>0</v>
+      <c r="AX50" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AY50" s="13" t="s">
         <v>57</v>
@@ -6553,20 +6553,20 @@
       <c r="AW51" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AX51" s="11" t="s">
-        <v>57</v>
+      <c r="AX51" s="11">
+        <v>106207</v>
       </c>
       <c r="AY51" s="11">
-        <v>106207</v>
+        <v>173780</v>
       </c>
       <c r="AZ51" s="11">
-        <v>173780</v>
+        <v>111262</v>
       </c>
       <c r="BA51" s="11">
-        <v>111262</v>
+        <v>114707</v>
       </c>
       <c r="BB51" s="11">
-        <v>114707</v>
+        <v>189530</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -6712,20 +6712,20 @@
       <c r="AW52" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AX52" s="13" t="s">
-        <v>57</v>
+      <c r="AX52" s="13">
+        <v>61002</v>
       </c>
       <c r="AY52" s="13">
-        <v>61002</v>
+        <v>72713</v>
       </c>
       <c r="AZ52" s="13">
-        <v>72713</v>
+        <v>89688</v>
       </c>
       <c r="BA52" s="13">
-        <v>89688</v>
+        <v>32572</v>
       </c>
       <c r="BB52" s="13">
-        <v>32572</v>
+        <v>66633</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.3">
@@ -6871,20 +6871,20 @@
       <c r="AW53" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AX53" s="11" t="s">
-        <v>57</v>
+      <c r="AX53" s="11">
+        <v>33840</v>
       </c>
       <c r="AY53" s="11">
-        <v>33840</v>
+        <v>44310</v>
       </c>
       <c r="AZ53" s="11">
-        <v>44310</v>
+        <v>46150</v>
       </c>
       <c r="BA53" s="11">
-        <v>46150</v>
+        <v>36063</v>
       </c>
       <c r="BB53" s="11">
-        <v>36063</v>
+        <v>69044</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -7015,8 +7015,8 @@
       <c r="Y55" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Z55" s="17" t="s">
-        <v>57</v>
+      <c r="Z55" s="17">
+        <v>0</v>
       </c>
       <c r="AA55" s="17">
         <v>0</v>
@@ -7075,11 +7075,11 @@
       <c r="AS55" s="17">
         <v>0</v>
       </c>
-      <c r="AT55" s="17">
-        <v>0</v>
-      </c>
-      <c r="AU55" s="17" t="s">
-        <v>57</v>
+      <c r="AT55" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU55" s="17">
+        <v>0</v>
       </c>
       <c r="AV55" s="17">
         <v>0</v>
@@ -7231,44 +7231,44 @@
       <c r="Y57" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z57" s="11" t="s">
-        <v>57</v>
+      <c r="Z57" s="11">
+        <v>-8958</v>
       </c>
       <c r="AA57" s="11">
-        <v>-8958</v>
+        <v>-17237</v>
       </c>
       <c r="AB57" s="11">
-        <v>-17237</v>
+        <v>-21520</v>
       </c>
       <c r="AC57" s="11">
-        <v>-21520</v>
+        <v>-5972</v>
       </c>
       <c r="AD57" s="11">
-        <v>-5972</v>
+        <v>-26762</v>
       </c>
       <c r="AE57" s="11">
-        <v>-26762</v>
+        <v>-8652</v>
       </c>
       <c r="AF57" s="11">
-        <v>-8652</v>
+        <v>-4255</v>
       </c>
       <c r="AG57" s="11">
-        <v>-4255</v>
+        <v>-11721</v>
       </c>
       <c r="AH57" s="11">
-        <v>-11721</v>
+        <v>-6256</v>
       </c>
       <c r="AI57" s="11">
-        <v>-6256</v>
+        <v>-46786</v>
       </c>
       <c r="AJ57" s="11">
-        <v>-46786</v>
+        <v>-18062</v>
       </c>
       <c r="AK57" s="11">
-        <v>-18062</v>
-      </c>
-      <c r="AL57" s="11">
         <v>-25646</v>
+      </c>
+      <c r="AL57" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AM57" s="11" t="s">
         <v>57</v>
@@ -7426,56 +7426,56 @@
       <c r="AK58" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AL58" s="13" t="s">
-        <v>57</v>
+      <c r="AL58" s="13">
+        <v>-11135</v>
       </c>
       <c r="AM58" s="13">
-        <v>-11135</v>
+        <v>-20214</v>
       </c>
       <c r="AN58" s="13">
-        <v>-20214</v>
+        <v>-8563</v>
       </c>
       <c r="AO58" s="13">
-        <v>-8563</v>
+        <v>-19667</v>
       </c>
       <c r="AP58" s="13">
-        <v>-19667</v>
+        <v>-16756</v>
       </c>
       <c r="AQ58" s="13">
-        <v>-16756</v>
+        <v>-12069</v>
       </c>
       <c r="AR58" s="13">
-        <v>-12069</v>
+        <v>-20516</v>
       </c>
       <c r="AS58" s="13">
-        <v>-20516</v>
-      </c>
-      <c r="AT58" s="13">
         <v>-8303</v>
       </c>
-      <c r="AU58" s="13" t="s">
-        <v>57</v>
+      <c r="AT58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU58" s="13">
+        <v>-13644</v>
       </c>
       <c r="AV58" s="13">
-        <v>-13644</v>
+        <v>-99147</v>
       </c>
       <c r="AW58" s="13">
-        <v>-99147</v>
+        <v>-77235</v>
       </c>
       <c r="AX58" s="13">
-        <v>-77235</v>
+        <v>-128272</v>
       </c>
       <c r="AY58" s="13">
-        <v>-128272</v>
+        <v>-139313</v>
       </c>
       <c r="AZ58" s="13">
-        <v>-139313</v>
+        <v>-99587</v>
       </c>
       <c r="BA58" s="13">
-        <v>-99587</v>
+        <v>-38900</v>
       </c>
       <c r="BB58" s="13">
-        <v>-38900</v>
+        <v>-16506</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -7549,92 +7549,92 @@
       <c r="Y59" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Z59" s="17" t="s">
-        <v>57</v>
+      <c r="Z59" s="17">
+        <v>-8958</v>
       </c>
       <c r="AA59" s="17">
-        <v>-8958</v>
+        <v>-17237</v>
       </c>
       <c r="AB59" s="17">
-        <v>-17237</v>
+        <v>-21520</v>
       </c>
       <c r="AC59" s="17">
-        <v>-21520</v>
+        <v>-5972</v>
       </c>
       <c r="AD59" s="17">
-        <v>-5972</v>
+        <v>-26762</v>
       </c>
       <c r="AE59" s="17">
-        <v>-26762</v>
+        <v>-8652</v>
       </c>
       <c r="AF59" s="17">
-        <v>-8652</v>
+        <v>-4255</v>
       </c>
       <c r="AG59" s="17">
-        <v>-4255</v>
+        <v>-11721</v>
       </c>
       <c r="AH59" s="17">
-        <v>-11721</v>
+        <v>-6256</v>
       </c>
       <c r="AI59" s="17">
-        <v>-6256</v>
+        <v>-46786</v>
       </c>
       <c r="AJ59" s="17">
-        <v>-46786</v>
+        <v>-18062</v>
       </c>
       <c r="AK59" s="17">
-        <v>-18062</v>
+        <v>-25646</v>
       </c>
       <c r="AL59" s="17">
-        <v>-25646</v>
+        <v>-11135</v>
       </c>
       <c r="AM59" s="17">
-        <v>-11135</v>
+        <v>-20214</v>
       </c>
       <c r="AN59" s="17">
-        <v>-20214</v>
+        <v>-8563</v>
       </c>
       <c r="AO59" s="17">
-        <v>-8563</v>
+        <v>-19667</v>
       </c>
       <c r="AP59" s="17">
-        <v>-19667</v>
+        <v>-16756</v>
       </c>
       <c r="AQ59" s="17">
-        <v>-16756</v>
+        <v>-12069</v>
       </c>
       <c r="AR59" s="17">
-        <v>-12069</v>
+        <v>-20516</v>
       </c>
       <c r="AS59" s="17">
-        <v>-20516</v>
-      </c>
-      <c r="AT59" s="17">
         <v>-8303</v>
       </c>
-      <c r="AU59" s="17" t="s">
-        <v>57</v>
+      <c r="AT59" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU59" s="17">
+        <v>-13644</v>
       </c>
       <c r="AV59" s="17">
-        <v>-13644</v>
+        <v>-99147</v>
       </c>
       <c r="AW59" s="17">
-        <v>-99147</v>
+        <v>-77235</v>
       </c>
       <c r="AX59" s="17">
-        <v>-77235</v>
+        <v>-128272</v>
       </c>
       <c r="AY59" s="17">
-        <v>-128272</v>
+        <v>-139313</v>
       </c>
       <c r="AZ59" s="17">
-        <v>-139313</v>
+        <v>-99587</v>
       </c>
       <c r="BA59" s="17">
-        <v>-99587</v>
+        <v>-38900</v>
       </c>
       <c r="BB59" s="17">
-        <v>-38900</v>
+        <v>-16506</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
@@ -7765,92 +7765,92 @@
       <c r="Y61" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Z61" s="11" t="s">
-        <v>57</v>
+      <c r="Z61" s="11">
+        <v>-72004</v>
       </c>
       <c r="AA61" s="11">
-        <v>-72004</v>
+        <v>-31609</v>
       </c>
       <c r="AB61" s="11">
-        <v>-31609</v>
+        <v>-65563</v>
       </c>
       <c r="AC61" s="11">
-        <v>-65563</v>
+        <v>-6327</v>
       </c>
       <c r="AD61" s="11">
-        <v>-6327</v>
+        <v>-50592</v>
       </c>
       <c r="AE61" s="11">
-        <v>-50592</v>
+        <v>-33987</v>
       </c>
       <c r="AF61" s="11">
-        <v>-33987</v>
+        <v>-17116</v>
       </c>
       <c r="AG61" s="11">
-        <v>-17116</v>
+        <v>-15914</v>
       </c>
       <c r="AH61" s="11">
-        <v>-15914</v>
+        <v>-24884</v>
       </c>
       <c r="AI61" s="11">
-        <v>-24884</v>
+        <v>-26636</v>
       </c>
       <c r="AJ61" s="11">
-        <v>-26636</v>
+        <v>-41158</v>
       </c>
       <c r="AK61" s="11">
-        <v>-41158</v>
+        <v>-49124</v>
       </c>
       <c r="AL61" s="11">
-        <v>-49124</v>
+        <v>-44815</v>
       </c>
       <c r="AM61" s="11">
-        <v>-44815</v>
+        <v>-6319</v>
       </c>
       <c r="AN61" s="11">
-        <v>-6319</v>
+        <v>-9993</v>
       </c>
       <c r="AO61" s="11">
-        <v>-9993</v>
+        <v>-19062</v>
       </c>
       <c r="AP61" s="11">
-        <v>-19062</v>
+        <v>-25829</v>
       </c>
       <c r="AQ61" s="11">
-        <v>-25829</v>
+        <v>-22942</v>
       </c>
       <c r="AR61" s="11">
-        <v>-22942</v>
+        <v>-31897</v>
       </c>
       <c r="AS61" s="11">
-        <v>-31897</v>
-      </c>
-      <c r="AT61" s="11">
         <v>-25389</v>
       </c>
-      <c r="AU61" s="11" t="s">
-        <v>57</v>
+      <c r="AT61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU61" s="11">
+        <v>-30640</v>
       </c>
       <c r="AV61" s="11">
-        <v>-30640</v>
+        <v>-12646</v>
       </c>
       <c r="AW61" s="11">
-        <v>-12646</v>
+        <v>-26022</v>
       </c>
       <c r="AX61" s="11">
-        <v>-26022</v>
+        <v>-24120</v>
       </c>
       <c r="AY61" s="11">
-        <v>-24120</v>
+        <v>-22557</v>
       </c>
       <c r="AZ61" s="11">
-        <v>-22557</v>
+        <v>-24119</v>
       </c>
       <c r="BA61" s="11">
-        <v>-24119</v>
+        <v>-23948</v>
       </c>
       <c r="BB61" s="11">
-        <v>-23948</v>
+        <v>-35437</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -7860,154 +7860,154 @@
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
       <c r="E62" s="19">
-        <v>290877</v>
+        <v>83909</v>
       </c>
       <c r="F62" s="19">
-        <v>83909</v>
+        <v>318919</v>
       </c>
       <c r="G62" s="19">
-        <v>318919</v>
+        <v>166916</v>
       </c>
       <c r="H62" s="19">
-        <v>166916</v>
+        <v>205591</v>
       </c>
       <c r="I62" s="19">
-        <v>205591</v>
+        <v>303961</v>
       </c>
       <c r="J62" s="19">
-        <v>303961</v>
+        <v>301594</v>
       </c>
       <c r="K62" s="19">
-        <v>301594</v>
+        <v>353297</v>
       </c>
       <c r="L62" s="19">
-        <v>353297</v>
+        <v>434018</v>
       </c>
       <c r="M62" s="19">
-        <v>434018</v>
+        <v>473562</v>
       </c>
       <c r="N62" s="19">
-        <v>473562</v>
+        <v>320629</v>
       </c>
       <c r="O62" s="19">
-        <v>320629</v>
+        <v>407959</v>
       </c>
       <c r="P62" s="19">
-        <v>407959</v>
+        <v>494434</v>
       </c>
       <c r="Q62" s="19">
-        <v>494434</v>
+        <v>132840</v>
       </c>
       <c r="R62" s="19">
-        <v>132840</v>
+        <v>453935</v>
       </c>
       <c r="S62" s="19">
-        <v>453935</v>
+        <v>205869</v>
       </c>
       <c r="T62" s="19">
-        <v>205869</v>
+        <v>474091</v>
       </c>
       <c r="U62" s="19">
-        <v>474091</v>
+        <v>416102</v>
       </c>
       <c r="V62" s="19">
-        <v>416102</v>
+        <v>649924</v>
       </c>
       <c r="W62" s="19">
-        <v>649924</v>
+        <v>716083</v>
       </c>
       <c r="X62" s="19">
-        <v>716083</v>
+        <v>791330</v>
       </c>
       <c r="Y62" s="19">
-        <v>791330</v>
+        <v>609930</v>
       </c>
       <c r="Z62" s="19">
-        <v>609930</v>
+        <v>552377</v>
       </c>
       <c r="AA62" s="19">
-        <v>552377</v>
+        <v>706952</v>
       </c>
       <c r="AB62" s="19">
-        <v>706952</v>
+        <v>465609</v>
       </c>
       <c r="AC62" s="19">
-        <v>465609</v>
+        <v>150097</v>
       </c>
       <c r="AD62" s="19">
-        <v>150097</v>
+        <v>315345</v>
       </c>
       <c r="AE62" s="19">
-        <v>315345</v>
+        <v>388458</v>
       </c>
       <c r="AF62" s="19">
-        <v>388458</v>
+        <v>416403</v>
       </c>
       <c r="AG62" s="19">
-        <v>416403</v>
+        <v>408971</v>
       </c>
       <c r="AH62" s="19">
-        <v>408971</v>
+        <v>575619</v>
       </c>
       <c r="AI62" s="19">
-        <v>575619</v>
+        <v>571526</v>
       </c>
       <c r="AJ62" s="19">
-        <v>571526</v>
+        <v>780426</v>
       </c>
       <c r="AK62" s="19">
-        <v>780426</v>
+        <v>807796</v>
       </c>
       <c r="AL62" s="19">
-        <v>807796</v>
+        <v>567774</v>
       </c>
       <c r="AM62" s="19">
-        <v>567774</v>
+        <v>357422</v>
       </c>
       <c r="AN62" s="19">
-        <v>357422</v>
+        <v>688142</v>
       </c>
       <c r="AO62" s="19">
-        <v>688142</v>
+        <v>1059041</v>
       </c>
       <c r="AP62" s="19">
-        <v>1059041</v>
+        <v>1321156</v>
       </c>
       <c r="AQ62" s="19">
-        <v>1321156</v>
+        <v>1073277</v>
       </c>
       <c r="AR62" s="19">
-        <v>1073277</v>
+        <v>1392679</v>
       </c>
       <c r="AS62" s="19">
-        <v>1392679</v>
+        <v>1401243</v>
       </c>
       <c r="AT62" s="19">
-        <v>1401243</v>
+        <v>0</v>
       </c>
       <c r="AU62" s="19">
-        <v>0</v>
+        <v>1210806</v>
       </c>
       <c r="AV62" s="19">
-        <v>1210806</v>
+        <v>589580</v>
       </c>
       <c r="AW62" s="19">
-        <v>589580</v>
+        <v>1203745</v>
       </c>
       <c r="AX62" s="19">
-        <v>1203745</v>
+        <v>1051586</v>
       </c>
       <c r="AY62" s="19">
-        <v>1051586</v>
+        <v>1178550</v>
       </c>
       <c r="AZ62" s="19">
-        <v>1178550</v>
+        <v>1219284</v>
       </c>
       <c r="BA62" s="19">
-        <v>1219284</v>
+        <v>892432</v>
       </c>
       <c r="BB62" s="19">
-        <v>892432</v>
+        <v>1686675</v>
       </c>
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.3">
@@ -8453,106 +8453,106 @@
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
-        <v>153903175</v>
+        <v>123759587</v>
       </c>
       <c r="F69" s="11">
-        <v>123759587</v>
+        <v>146092075</v>
       </c>
       <c r="G69" s="11">
-        <v>146092075</v>
+        <v>157765595</v>
       </c>
       <c r="H69" s="11">
-        <v>157765595</v>
+        <v>159003094</v>
       </c>
       <c r="I69" s="11">
-        <v>159003094</v>
+        <v>164927292</v>
       </c>
       <c r="J69" s="11">
-        <v>164927292</v>
+        <v>163023784</v>
       </c>
       <c r="K69" s="11">
-        <v>163023784</v>
+        <v>165867136</v>
       </c>
       <c r="L69" s="11">
-        <v>165867136</v>
+        <v>199090826</v>
       </c>
       <c r="M69" s="11">
-        <v>199090826</v>
+        <v>198725136</v>
       </c>
       <c r="N69" s="11">
-        <v>198725136</v>
+        <v>207526861</v>
       </c>
       <c r="O69" s="11">
-        <v>207526861</v>
+        <v>210179804</v>
       </c>
       <c r="P69" s="11">
-        <v>210179804</v>
+        <v>209861630</v>
       </c>
       <c r="Q69" s="11">
-        <v>209861630</v>
+        <v>185790210</v>
       </c>
       <c r="R69" s="11">
-        <v>185790210</v>
+        <v>188511213</v>
       </c>
       <c r="S69" s="11">
-        <v>188511213</v>
+        <v>198332370</v>
       </c>
       <c r="T69" s="11">
-        <v>198332370</v>
+        <v>205145392</v>
       </c>
       <c r="U69" s="11">
-        <v>205145392</v>
+        <v>197111322</v>
       </c>
       <c r="V69" s="11">
-        <v>197111322</v>
+        <v>219568919</v>
       </c>
       <c r="W69" s="11">
-        <v>219568919</v>
+        <v>231817093</v>
       </c>
       <c r="X69" s="11">
-        <v>231817093</v>
+        <v>223350268</v>
       </c>
       <c r="Y69" s="11">
-        <v>223350268</v>
+        <v>242131798</v>
       </c>
       <c r="Z69" s="11">
-        <v>242131798</v>
+        <v>253234306</v>
       </c>
       <c r="AA69" s="11">
-        <v>253234306</v>
+        <v>269927857</v>
       </c>
       <c r="AB69" s="11">
-        <v>269927857</v>
+        <v>245750111</v>
       </c>
       <c r="AC69" s="11">
-        <v>245750111</v>
+        <v>273393939</v>
       </c>
       <c r="AD69" s="11">
-        <v>273393939</v>
+        <v>266960571</v>
       </c>
       <c r="AE69" s="11">
-        <v>266960571</v>
+        <v>283057781</v>
       </c>
       <c r="AF69" s="11">
-        <v>283057781</v>
+        <v>312472520</v>
       </c>
       <c r="AG69" s="11">
-        <v>312472520</v>
+        <v>324372957</v>
       </c>
       <c r="AH69" s="11">
-        <v>324372957</v>
+        <v>346917667</v>
       </c>
       <c r="AI69" s="11">
-        <v>346917667</v>
+        <v>393981674</v>
       </c>
       <c r="AJ69" s="11">
-        <v>393981674</v>
+        <v>391991597</v>
       </c>
       <c r="AK69" s="11">
-        <v>391991597</v>
-      </c>
-      <c r="AL69" s="11">
         <v>400984098</v>
+      </c>
+      <c r="AL69" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AM69" s="11" t="s">
         <v>57</v>
@@ -8746,20 +8746,20 @@
       <c r="AW70" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AX70" s="13" t="s">
-        <v>57</v>
+      <c r="AX70" s="13">
+        <v>905096154</v>
       </c>
       <c r="AY70" s="13">
-        <v>905096154</v>
+        <v>879525000</v>
       </c>
       <c r="AZ70" s="13">
-        <v>879525000</v>
+        <v>966095652</v>
       </c>
       <c r="BA70" s="13">
-        <v>966095652</v>
+        <v>942721088</v>
       </c>
       <c r="BB70" s="13">
-        <v>942721088</v>
+        <v>1034810811</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -8869,56 +8869,56 @@
       <c r="AK71" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AL71" s="11" t="s">
-        <v>57</v>
+      <c r="AL71" s="11">
+        <v>415262317</v>
       </c>
       <c r="AM71" s="11">
-        <v>415262317</v>
+        <v>423791391</v>
       </c>
       <c r="AN71" s="11">
-        <v>423791391</v>
+        <v>499747307</v>
       </c>
       <c r="AO71" s="11">
-        <v>499747307</v>
+        <v>547100608</v>
       </c>
       <c r="AP71" s="11">
-        <v>547100608</v>
+        <v>761016183</v>
       </c>
       <c r="AQ71" s="11">
-        <v>761016183</v>
+        <v>776112045</v>
       </c>
       <c r="AR71" s="11">
-        <v>776112045</v>
+        <v>811393599</v>
       </c>
       <c r="AS71" s="11">
-        <v>811393599</v>
-      </c>
-      <c r="AT71" s="11">
         <v>803435050</v>
       </c>
-      <c r="AU71" s="11" t="s">
-        <v>57</v>
+      <c r="AT71" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU71" s="11">
+        <v>795367554</v>
       </c>
       <c r="AV71" s="11">
-        <v>795367554</v>
+        <v>756605178</v>
       </c>
       <c r="AW71" s="11">
-        <v>756605178</v>
+        <v>812307023</v>
       </c>
       <c r="AX71" s="11">
-        <v>812307023</v>
+        <v>832994888</v>
       </c>
       <c r="AY71" s="11">
-        <v>832994888</v>
+        <v>806279808</v>
       </c>
       <c r="AZ71" s="11">
-        <v>806279808</v>
+        <v>772491600</v>
       </c>
       <c r="BA71" s="11">
-        <v>772491600</v>
+        <v>851287634</v>
       </c>
       <c r="BB71" s="11">
-        <v>851287634</v>
+        <v>890664852</v>
       </c>
     </row>
     <row r="72" spans="2:54" x14ac:dyDescent="0.3">
@@ -9034,14 +9034,14 @@
       <c r="AM72" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AN72" s="13" t="s">
-        <v>57</v>
+      <c r="AN72" s="13">
+        <v>792161290</v>
       </c>
       <c r="AO72" s="13">
-        <v>792161290</v>
-      </c>
-      <c r="AP72" s="13">
         <v>800481481</v>
+      </c>
+      <c r="AP72" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ72" s="13" t="s">
         <v>57</v>
@@ -9223,20 +9223,20 @@
       <c r="AW73" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AX73" s="11" t="s">
-        <v>57</v>
+      <c r="AX73" s="11">
+        <v>842912698</v>
       </c>
       <c r="AY73" s="11">
-        <v>842912698</v>
+        <v>831483254</v>
       </c>
       <c r="AZ73" s="11">
-        <v>831483254</v>
+        <v>883031746</v>
       </c>
       <c r="BA73" s="11">
-        <v>883031746</v>
+        <v>1082141509</v>
       </c>
       <c r="BB73" s="11">
-        <v>1082141509</v>
+        <v>997526316</v>
       </c>
     </row>
     <row r="74" spans="2:54" x14ac:dyDescent="0.3">
@@ -9382,20 +9382,20 @@
       <c r="AW74" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AX74" s="13" t="s">
-        <v>57</v>
+      <c r="AX74" s="13">
+        <v>734963855</v>
       </c>
       <c r="AY74" s="13">
-        <v>734963855</v>
+        <v>749618557</v>
       </c>
       <c r="AZ74" s="13">
-        <v>749618557</v>
+        <v>773172414</v>
       </c>
       <c r="BA74" s="13">
-        <v>773172414</v>
+        <v>814300000</v>
       </c>
       <c r="BB74" s="13">
-        <v>814300000</v>
+        <v>748685393</v>
       </c>
     </row>
     <row r="75" spans="2:54" x14ac:dyDescent="0.3">
@@ -9541,20 +9541,20 @@
       <c r="AW75" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AX75" s="11" t="s">
-        <v>57</v>
+      <c r="AX75" s="11">
+        <v>554754098</v>
       </c>
       <c r="AY75" s="11">
-        <v>554754098</v>
+        <v>540365854</v>
       </c>
       <c r="AZ75" s="11">
-        <v>540365854</v>
+        <v>485789474</v>
       </c>
       <c r="BA75" s="11">
-        <v>485789474</v>
+        <v>783978261</v>
       </c>
       <c r="BB75" s="11">
-        <v>783978261</v>
+        <v>767155556</v>
       </c>
     </row>
   </sheetData>
